--- a/CeShi/xinnengyuan_db/BIT_AutoAD_V5.0(2).xlsx
+++ b/CeShi/xinnengyuan_db/BIT_AutoAD_V5.0(2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="版本说明"/>
@@ -32,7 +32,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -48,7 +48,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -64,7 +64,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -80,7 +80,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -96,7 +96,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -112,7 +112,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -128,7 +128,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -144,7 +144,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -160,7 +160,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -170,7 +170,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -187,7 +187,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -203,7 +203,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -220,7 +220,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -236,7 +236,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -252,7 +252,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -268,7 +268,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -284,7 +284,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -300,7 +300,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -316,7 +316,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -332,7 +332,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -464,7 +464,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -473,7 +473,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -483,7 +483,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -492,7 +492,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -507,7 +507,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -521,7 +521,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -530,7 +530,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -540,7 +540,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -549,7 +549,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -559,7 +559,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -568,7 +568,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -578,7 +578,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -587,7 +587,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -597,7 +597,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -606,7 +606,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -616,7 +616,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -635,7 +635,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -651,7 +651,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -667,7 +667,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -683,7 +683,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -699,7 +699,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -715,7 +715,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -731,7 +731,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -747,7 +747,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -763,7 +763,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -773,7 +773,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -790,7 +790,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -806,7 +806,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -823,7 +823,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -839,7 +839,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -855,7 +855,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -871,7 +871,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -887,7 +887,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -903,7 +903,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -919,7 +919,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -935,7 +935,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -955,7 +955,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -964,7 +964,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -974,7 +974,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -1023,7 +1023,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -1032,7 +1032,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1042,7 +1042,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -1061,7 +1061,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1077,7 +1077,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1093,7 +1093,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1109,7 +1109,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1125,7 +1125,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1141,7 +1141,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1157,7 +1157,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1173,7 +1173,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1189,7 +1189,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1199,7 +1199,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1216,7 +1216,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1232,7 +1232,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1249,7 +1249,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1265,7 +1265,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1281,7 +1281,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1297,7 +1297,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1313,7 +1313,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1329,7 +1329,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1345,7 +1345,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1361,7 +1361,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1378,7 +1378,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1395,7 +1395,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1404,7 +1404,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1414,7 +1414,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1431,7 +1431,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1451,7 +1451,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1471,7 +1471,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1488,7 +1488,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1505,7 +1505,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1519,7 +1519,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1528,7 +1528,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1538,7 +1538,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1558,7 +1558,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1567,7 +1567,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1577,7 +1577,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1597,7 +1597,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1606,7 +1606,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1616,7 +1616,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1636,7 +1636,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1645,7 +1645,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1655,7 +1655,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1693,7 +1693,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1702,7 +1702,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1712,7 +1712,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1729,7 +1729,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1743,7 +1743,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1752,7 +1752,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1761,7 +1761,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1787,7 +1787,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1801,7 +1801,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1810,7 +1810,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1819,7 +1819,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1828,7 +1828,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1837,7 +1837,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1846,7 +1846,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1856,7 +1856,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1865,17 +1865,16 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1884,7 +1883,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1893,7 +1892,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1902,16 +1901,16 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Bit2</t>
+      <t xml:space="preserve">                                                                                      Bit2</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1920,7 +1919,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1929,7 +1928,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1938,7 +1937,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1947,7 +1946,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1956,16 +1955,16 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Bit3: </t>
+      <t xml:space="preserve">                                                                                            Bit3: </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1974,7 +1973,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1983,7 +1982,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -1992,7 +1991,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2001,7 +2000,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2010,16 +2009,16 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Bit4: MOS</t>
+      <t xml:space="preserve">                                                                                                Bit4: MOS</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2028,7 +2027,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2037,7 +2036,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2046,7 +2045,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2055,7 +2054,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2064,16 +2063,16 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Bit5: SOC</t>
+      <t xml:space="preserve">                                                                                              Bit5: SOC</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2082,7 +2081,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2091,7 +2090,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2100,7 +2099,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2109,7 +2108,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2118,16 +2117,16 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Bit6: </t>
+      <t xml:space="preserve">                                                                                                              Bit6: </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2136,7 +2135,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2145,7 +2144,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2162,7 +2161,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2179,7 +2178,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2196,7 +2195,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2213,7 +2212,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2230,7 +2229,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2244,7 +2243,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2253,7 +2252,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2263,7 +2262,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2272,7 +2271,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2282,7 +2281,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2291,7 +2290,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2301,7 +2300,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2310,7 +2309,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2320,7 +2319,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2337,7 +2336,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2366,7 +2365,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2595,7 +2594,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2604,7 +2603,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2613,7 +2612,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2630,7 +2629,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2647,7 +2646,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2656,7 +2655,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2666,7 +2665,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2675,7 +2674,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2693,7 +2692,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2710,7 +2709,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2727,7 +2726,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -2741,7 +2740,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2750,7 +2749,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2760,7 +2759,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2777,7 +2776,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -2791,7 +2790,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2800,7 +2799,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2810,7 +2809,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2827,7 +2826,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -2850,7 +2849,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -2867,7 +2866,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -2887,7 +2886,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -2904,7 +2903,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
@@ -2940,7 +2939,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2954,7 +2953,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2963,7 +2962,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2972,7 +2971,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2986,7 +2985,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -2995,7 +2994,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3004,7 +3003,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
@@ -3102,7 +3101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3113,8 +3112,38 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <family val="2"/>
     </font>
     <font>
@@ -3124,71 +3153,35 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <family val="2"/>
     </font>
     <font>
@@ -3198,65 +3191,53 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
     </font>
@@ -3400,6 +3381,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -3446,13 +3434,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -3551,6 +3532,99 @@
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3560,346 +3634,253 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="12" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="17" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="18" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="18" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="19" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="20" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="20" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="20" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="16" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="17" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="18" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="12" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="19" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="19" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="20" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="21" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="21" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="22" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="23" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="23" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="23" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="24" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="21" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4206,7 +4187,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4214,13 +4195,13 @@
     <col min="2" max="2" style="55" width="74.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33">
       <c r="A1" s="137" t="s">
         <v>275</v>
       </c>
       <c r="B1" s="137"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
       <c r="A2" s="138" t="s">
         <v>276</v>
       </c>
@@ -4228,31 +4209,31 @@
         <v>277</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
       <c r="A3" s="138" t="s">
         <v>278</v>
       </c>
       <c r="B3" s="138"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
       <c r="A4" s="138" t="s">
         <v>279</v>
       </c>
       <c r="B4" s="138"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
       <c r="A5" s="138" t="s">
         <v>280</v>
       </c>
       <c r="B5" s="138"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
       <c r="A6" s="138" t="s">
         <v>281</v>
       </c>
       <c r="B6" s="138"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24">
       <c r="A7" s="138" t="s">
         <v>282</v>
       </c>
@@ -4277,7 +4258,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="76" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="55" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -4286,481 +4267,481 @@
     <col min="7" max="7" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="54" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="76" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="76" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="76" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="76" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="76" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="125" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="125" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="125" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="125" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="114" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="114" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="114" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="124" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="124" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="124" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="124" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="124" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="124" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="26.25">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="26.25">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="26.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="26.25">
-      <c r="A5" s="128"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="26.25">
-      <c r="A6" s="128"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="100"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="26.25">
-      <c r="A7" s="128"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="100"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="26.25">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="100"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="26.25">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="100"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="26.25">
-      <c r="A10" s="128"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="100"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="26.25">
-      <c r="A11" s="128"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="26.25">
-      <c r="A12" s="128"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="26.25">
-      <c r="A13" s="128"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="26.25">
-      <c r="A14" s="128"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="26.25">
-      <c r="A15" s="128"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="26.25">
-      <c r="A16" s="128"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="26.25">
-      <c r="A17" s="128"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="26.25">
-      <c r="A18" s="128"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="100"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="26.25">
-      <c r="A19" s="128"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="128"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="128"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="128"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="100"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="128"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="88"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -4772,17 +4753,17 @@
       <c r="J24" s="88"/>
       <c r="K24" s="88"/>
       <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="100" t="s">
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="14.25">
-      <c r="A25" s="88"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -4794,15 +4775,15 @@
       <c r="J25" s="88"/>
       <c r="K25" s="88"/>
       <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="14.25">
-      <c r="A26" s="88"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -4814,15 +4795,15 @@
       <c r="J26" s="88"/>
       <c r="K26" s="88"/>
       <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="14.25" customFormat="1" s="1">
-      <c r="A27" s="100"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -4831,18 +4812,18 @@
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="130"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.25" customFormat="1" s="1">
-      <c r="A28" s="100"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
@@ -4851,15 +4832,15 @@
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="131"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="130"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="14.25" customFormat="1" s="1">
       <c r="A29" s="132" t="s">
@@ -4873,18 +4854,18 @@
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="14.25" customFormat="1" s="1">
-      <c r="A30" s="131"/>
+      <c r="A30" s="130"/>
       <c r="B30" s="133"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -4893,18 +4874,18 @@
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="131"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="130"/>
+      <c r="R30" s="130"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="14.25" customFormat="1" s="1">
-      <c r="A31" s="131"/>
+      <c r="A31" s="130"/>
       <c r="B31" s="133"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -4913,18 +4894,18 @@
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="14.25" customFormat="1" s="1">
-      <c r="A32" s="131"/>
+      <c r="A32" s="130"/>
       <c r="B32" s="133"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -4933,18 +4914,18 @@
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="131"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="130"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="14.25" customFormat="1" s="1">
-      <c r="A33" s="131"/>
+      <c r="A33" s="130"/>
       <c r="B33" s="133"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -4953,18 +4934,18 @@
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="130"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="14.25" customFormat="1" s="1">
-      <c r="A34" s="131"/>
+      <c r="A34" s="130"/>
       <c r="B34" s="133"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -4973,18 +4954,18 @@
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="131"/>
-      <c r="R34" s="131"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="130"/>
+      <c r="R34" s="130"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A35" s="131"/>
+      <c r="A35" s="130"/>
       <c r="B35" s="133"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
@@ -4993,18 +4974,18 @@
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="100"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A36" s="131"/>
+      <c r="A36" s="130"/>
       <c r="B36" s="133"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -5013,18 +4994,18 @@
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="100"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="88"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -5036,15 +5017,15 @@
       <c r="J37" s="88"/>
       <c r="K37" s="88"/>
       <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="88"/>
+      <c r="A38" s="131"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -5056,15 +5037,15 @@
       <c r="J38" s="88"/>
       <c r="K38" s="88"/>
       <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="100"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="88"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -5076,15 +5057,15 @@
       <c r="J39" s="88"/>
       <c r="K39" s="88"/>
       <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="100"/>
-      <c r="R39" s="100"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="123"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="88"/>
+      <c r="A40" s="131"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
@@ -5096,12 +5077,12 @@
       <c r="J40" s="88"/>
       <c r="K40" s="88"/>
       <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="100"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="100"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="134"/>
@@ -5129,15 +5110,15 @@
       <c r="I41" s="135" t="s">
         <v>266</v>
       </c>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="100"/>
-      <c r="R41" s="100"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A42" s="134" t="s">
@@ -5167,15 +5148,15 @@
       <c r="I42" s="136">
         <v>0</v>
       </c>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-      <c r="N42" s="100"/>
-      <c r="O42" s="100"/>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="100"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A43" s="134" t="s">
@@ -5205,15 +5186,15 @@
       <c r="I43" s="136">
         <v>8</v>
       </c>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
-      <c r="O43" s="100"/>
-      <c r="P43" s="100"/>
-      <c r="Q43" s="100"/>
-      <c r="R43" s="100"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A44" s="134" t="s">
@@ -5243,15 +5224,15 @@
       <c r="I44" s="136">
         <v>16</v>
       </c>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="100"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A45" s="134" t="s">
@@ -5281,15 +5262,15 @@
       <c r="I45" s="136">
         <v>24</v>
       </c>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-      <c r="N45" s="100"/>
-      <c r="O45" s="100"/>
-      <c r="P45" s="100"/>
-      <c r="Q45" s="100"/>
-      <c r="R45" s="100"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A46" s="134" t="s">
@@ -5319,15 +5300,15 @@
       <c r="I46" s="136">
         <v>32</v>
       </c>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="100"/>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A47" s="134" t="s">
@@ -5357,15 +5338,15 @@
       <c r="I47" s="136">
         <v>40</v>
       </c>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="100"/>
-      <c r="O47" s="100"/>
-      <c r="P47" s="100"/>
-      <c r="Q47" s="100"/>
-      <c r="R47" s="100"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A48" s="134" t="s">
@@ -5395,15 +5376,15 @@
       <c r="I48" s="136">
         <v>48</v>
       </c>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="100"/>
-      <c r="M48" s="100"/>
-      <c r="N48" s="100"/>
-      <c r="O48" s="100"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A49" s="134" t="s">
@@ -5433,15 +5414,15 @@
       <c r="I49" s="136">
         <v>56</v>
       </c>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="100"/>
-      <c r="O49" s="100"/>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="100"/>
-      <c r="R49" s="100"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5465,197 +5446,197 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="76" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="76" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="76" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="125" width="3.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="125" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="114" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="114" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="114" width="40.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="124" width="3.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="124" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124" t="s">
+      <c r="B3" s="121"/>
+      <c r="C3" s="122" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A4" s="123"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A5" s="123"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A6" s="123"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A7" s="123"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A8" s="123"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A9" s="123"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A10" s="123"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A13" s="123"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A16" s="123"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A17" s="123"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A18" s="123"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A19" s="123"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A20" s="123"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A21" s="123"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A22" s="123"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A23" s="123"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A24" s="123"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="25.5">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="25.5" customFormat="1" s="1">
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5681,25 +5662,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="76" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="76" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="76" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="76" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="75" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="75" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="76" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="76" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="76" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="75" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="75" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="75" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="75" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="76" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="118" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="75" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="75" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="75" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="76" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="114" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="114" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="114" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="114" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="115" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="115" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="114" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="114" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="114" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="115" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="115" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="115" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="115" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="114" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="116" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="115" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="115" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="115" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="114" width="47.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="45" customFormat="1" s="1">
@@ -5796,7 +5777,7 @@
       <c r="R2" s="61"/>
       <c r="S2" s="58"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="15.65">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17">
       <c r="A3" s="82" t="s">
         <v>112</v>
       </c>
@@ -5841,7 +5822,7 @@
       </c>
       <c r="S3" s="45"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="158.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.5">
       <c r="A4" s="84"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -5884,7 +5865,7 @@
       </c>
       <c r="S4" s="45"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="171">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15.5">
       <c r="A5" s="84"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -5970,7 +5951,7 @@
       </c>
       <c r="S6" s="45"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="29">
       <c r="A7" s="84"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
@@ -6011,11 +5992,11 @@
       <c r="R7" s="46">
         <v>1</v>
       </c>
-      <c r="S7" s="45" t="s">
+      <c r="S7" s="50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="31">
       <c r="A8" s="84"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -6056,11 +6037,11 @@
       <c r="R8" s="46">
         <v>1</v>
       </c>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="31.5">
       <c r="A9" s="84"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
@@ -6101,11 +6082,11 @@
       <c r="R9" s="46">
         <v>1</v>
       </c>
-      <c r="S9" s="45" t="s">
+      <c r="S9" s="50" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31">
       <c r="A10" s="84"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -6146,11 +6127,11 @@
       <c r="R10" s="46">
         <v>1</v>
       </c>
-      <c r="S10" s="45" t="s">
+      <c r="S10" s="50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="31">
       <c r="A11" s="84"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
@@ -6191,11 +6172,11 @@
       <c r="R11" s="46">
         <v>1</v>
       </c>
-      <c r="S11" s="45" t="s">
+      <c r="S11" s="50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="30">
       <c r="A12" s="84"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
@@ -6236,11 +6217,11 @@
       <c r="R12" s="46">
         <v>1</v>
       </c>
-      <c r="S12" s="45" t="s">
+      <c r="S12" s="50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="29">
       <c r="A13" s="84"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
@@ -6281,11 +6262,11 @@
       <c r="R13" s="46">
         <v>1</v>
       </c>
-      <c r="S13" s="45" t="s">
+      <c r="S13" s="50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="30.5">
       <c r="A14" s="84"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -6326,7 +6307,7 @@
       <c r="R14" s="46">
         <v>1</v>
       </c>
-      <c r="S14" s="45" t="s">
+      <c r="S14" s="50" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6453,7 +6434,7 @@
       <c r="R17" s="61"/>
       <c r="S17" s="58"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="115">
       <c r="A18" s="82" t="s">
         <v>112</v>
       </c>
@@ -6670,7 +6651,7 @@
       </c>
       <c r="S22" s="45"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="85.5">
       <c r="A23" s="87"/>
       <c r="B23" s="45"/>
       <c r="C23" s="45"/>
@@ -6797,172 +6778,172 @@
       <c r="A26" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="89" t="s">
+      <c r="H26" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="I26" s="89"/>
-      <c r="J26" s="90">
+      <c r="I26" s="65"/>
+      <c r="J26" s="67">
         <v>1</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K26" s="67">
         <v>12</v>
       </c>
-      <c r="L26" s="90">
+      <c r="L26" s="67">
         <v>12</v>
       </c>
-      <c r="M26" s="90">
+      <c r="M26" s="67">
         <v>7</v>
       </c>
       <c r="N26" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="91">
+      <c r="O26" s="89">
         <v>0.001</v>
       </c>
-      <c r="P26" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="90">
-        <v>0</v>
-      </c>
-      <c r="R26" s="90">
+      <c r="P26" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="67">
+        <v>0</v>
+      </c>
+      <c r="R26" s="67">
         <v>4</v>
       </c>
       <c r="S26" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="84"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="89"/>
-      <c r="J27" s="90">
+      <c r="I27" s="65"/>
+      <c r="J27" s="67">
         <v>2</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K27" s="67">
         <v>16</v>
       </c>
-      <c r="L27" s="90">
+      <c r="L27" s="67">
         <v>12</v>
       </c>
-      <c r="M27" s="90">
+      <c r="M27" s="67">
         <v>11</v>
       </c>
       <c r="N27" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O27" s="91">
+      <c r="O27" s="89">
         <v>0.001</v>
       </c>
-      <c r="P27" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="90">
-        <v>0</v>
-      </c>
-      <c r="R27" s="90">
+      <c r="P27" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="67">
+        <v>0</v>
+      </c>
+      <c r="R27" s="67">
         <v>4</v>
       </c>
       <c r="S27" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15.65">
       <c r="A28" s="84"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="H28" s="92" t="s">
+      <c r="H28" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90">
+      <c r="I28" s="65"/>
+      <c r="J28" s="67">
         <v>4</v>
       </c>
-      <c r="K28" s="90">
+      <c r="K28" s="67">
         <v>36</v>
       </c>
-      <c r="L28" s="90">
+      <c r="L28" s="67">
         <v>12</v>
       </c>
-      <c r="M28" s="90">
+      <c r="M28" s="67">
         <v>31</v>
       </c>
       <c r="N28" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="91">
+      <c r="O28" s="89">
         <v>0.001</v>
       </c>
-      <c r="P28" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="90">
-        <v>0</v>
-      </c>
-      <c r="R28" s="90">
+      <c r="P28" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="67">
+        <v>0</v>
+      </c>
+      <c r="R28" s="67">
         <v>4</v>
       </c>
       <c r="S28" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="84"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="H29" s="92" t="s">
+      <c r="H29" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="I29" s="89"/>
-      <c r="J29" s="90">
+      <c r="I29" s="65"/>
+      <c r="J29" s="67">
         <v>5</v>
       </c>
-      <c r="K29" s="90">
+      <c r="K29" s="67">
         <v>40</v>
       </c>
-      <c r="L29" s="90">
+      <c r="L29" s="67">
         <v>12</v>
       </c>
-      <c r="M29" s="90">
+      <c r="M29" s="67">
         <v>35</v>
       </c>
       <c r="N29" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O29" s="91">
+      <c r="O29" s="89">
         <v>0.001</v>
       </c>
-      <c r="P29" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="90">
-        <v>0</v>
-      </c>
-      <c r="R29" s="90">
+      <c r="P29" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="67">
+        <v>0</v>
+      </c>
+      <c r="R29" s="67">
         <v>4</v>
       </c>
       <c r="S29" s="88"/>
@@ -6977,35 +6958,35 @@
       <c r="G30" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="I30" s="89"/>
-      <c r="J30" s="90">
+      <c r="I30" s="65"/>
+      <c r="J30" s="67">
         <v>7</v>
       </c>
-      <c r="K30" s="90">
+      <c r="K30" s="67">
         <v>60</v>
       </c>
-      <c r="L30" s="90">
+      <c r="L30" s="67">
         <v>12</v>
       </c>
-      <c r="M30" s="90">
+      <c r="M30" s="67">
         <v>55</v>
       </c>
       <c r="N30" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O30" s="91">
+      <c r="O30" s="89">
         <v>0.001</v>
       </c>
-      <c r="P30" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="90">
-        <v>0</v>
-      </c>
-      <c r="R30" s="90">
+      <c r="P30" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="67">
+        <v>0</v>
+      </c>
+      <c r="R30" s="67">
         <v>4</v>
       </c>
       <c r="S30" s="88"/>
@@ -7020,20 +7001,20 @@
       <c r="G31" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="H31" s="92" t="s">
+      <c r="H31" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="89"/>
-      <c r="J31" s="90">
+      <c r="I31" s="65"/>
+      <c r="J31" s="67">
         <v>7</v>
       </c>
-      <c r="K31" s="90">
+      <c r="K31" s="67">
         <v>56</v>
       </c>
-      <c r="L31" s="90">
+      <c r="L31" s="67">
         <v>4</v>
       </c>
-      <c r="M31" s="90">
+      <c r="M31" s="67">
         <v>63</v>
       </c>
       <c r="N31" s="45" t="s">
@@ -7092,172 +7073,172 @@
       <c r="A33" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
       <c r="G33" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="H33" s="92" t="s">
+      <c r="H33" s="90" t="s">
         <v>182</v>
       </c>
-      <c r="I33" s="89"/>
-      <c r="J33" s="90">
+      <c r="I33" s="65"/>
+      <c r="J33" s="67">
         <v>1</v>
       </c>
-      <c r="K33" s="90">
+      <c r="K33" s="67">
         <v>12</v>
       </c>
-      <c r="L33" s="90">
+      <c r="L33" s="67">
         <v>12</v>
       </c>
-      <c r="M33" s="90">
+      <c r="M33" s="67">
         <v>7</v>
       </c>
       <c r="N33" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O33" s="91">
+      <c r="O33" s="89">
         <v>0.001</v>
       </c>
-      <c r="P33" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="90">
-        <v>0</v>
-      </c>
-      <c r="R33" s="90">
+      <c r="P33" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="67">
+        <v>0</v>
+      </c>
+      <c r="R33" s="67">
         <v>4</v>
       </c>
       <c r="S33" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="84"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="92" t="s">
+      <c r="H34" s="90" t="s">
         <v>184</v>
       </c>
-      <c r="I34" s="89"/>
-      <c r="J34" s="90">
+      <c r="I34" s="65"/>
+      <c r="J34" s="67">
         <v>2</v>
       </c>
-      <c r="K34" s="90">
+      <c r="K34" s="67">
         <v>16</v>
       </c>
-      <c r="L34" s="90">
+      <c r="L34" s="67">
         <v>12</v>
       </c>
-      <c r="M34" s="90">
+      <c r="M34" s="67">
         <v>11</v>
       </c>
       <c r="N34" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O34" s="91">
+      <c r="O34" s="89">
         <v>0.001</v>
       </c>
-      <c r="P34" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="90">
-        <v>0</v>
-      </c>
-      <c r="R34" s="90">
+      <c r="P34" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="67">
+        <v>0</v>
+      </c>
+      <c r="R34" s="67">
         <v>4</v>
       </c>
       <c r="S34" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.65">
       <c r="A35" s="84"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="H35" s="92" t="s">
+      <c r="H35" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="I35" s="89"/>
-      <c r="J35" s="90">
+      <c r="I35" s="65"/>
+      <c r="J35" s="67">
         <v>4</v>
       </c>
-      <c r="K35" s="90">
+      <c r="K35" s="67">
         <v>36</v>
       </c>
-      <c r="L35" s="90">
+      <c r="L35" s="67">
         <v>12</v>
       </c>
-      <c r="M35" s="90">
+      <c r="M35" s="67">
         <v>31</v>
       </c>
       <c r="N35" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O35" s="91">
+      <c r="O35" s="89">
         <v>0.001</v>
       </c>
-      <c r="P35" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="90">
-        <v>0</v>
-      </c>
-      <c r="R35" s="90">
+      <c r="P35" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="67">
+        <v>0</v>
+      </c>
+      <c r="R35" s="67">
         <v>4</v>
       </c>
       <c r="S35" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="84"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="H36" s="92" t="s">
+      <c r="H36" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="I36" s="89"/>
-      <c r="J36" s="90">
+      <c r="I36" s="65"/>
+      <c r="J36" s="67">
         <v>5</v>
       </c>
-      <c r="K36" s="90">
+      <c r="K36" s="67">
         <v>40</v>
       </c>
-      <c r="L36" s="90">
+      <c r="L36" s="67">
         <v>12</v>
       </c>
-      <c r="M36" s="90">
+      <c r="M36" s="67">
         <v>35</v>
       </c>
       <c r="N36" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O36" s="91">
+      <c r="O36" s="89">
         <v>0.001</v>
       </c>
-      <c r="P36" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="90">
-        <v>0</v>
-      </c>
-      <c r="R36" s="90">
+      <c r="P36" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="67">
+        <v>0</v>
+      </c>
+      <c r="R36" s="67">
         <v>4</v>
       </c>
       <c r="S36" s="88"/>
@@ -7272,35 +7253,35 @@
       <c r="G37" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H37" s="92" t="s">
+      <c r="H37" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="I37" s="89"/>
-      <c r="J37" s="90">
+      <c r="I37" s="65"/>
+      <c r="J37" s="67">
         <v>7</v>
       </c>
-      <c r="K37" s="90">
+      <c r="K37" s="67">
         <v>60</v>
       </c>
-      <c r="L37" s="90">
+      <c r="L37" s="67">
         <v>12</v>
       </c>
-      <c r="M37" s="90">
+      <c r="M37" s="67">
         <v>55</v>
       </c>
       <c r="N37" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O37" s="91">
+      <c r="O37" s="89">
         <v>0.001</v>
       </c>
-      <c r="P37" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="90">
-        <v>0</v>
-      </c>
-      <c r="R37" s="90">
+      <c r="P37" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="67">
+        <v>0</v>
+      </c>
+      <c r="R37" s="67">
         <v>4</v>
       </c>
       <c r="S37" s="88"/>
@@ -7315,20 +7296,20 @@
       <c r="G38" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="H38" s="92" t="s">
+      <c r="H38" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="89"/>
-      <c r="J38" s="90">
+      <c r="I38" s="65"/>
+      <c r="J38" s="67">
         <v>7</v>
       </c>
-      <c r="K38" s="90">
+      <c r="K38" s="67">
         <v>56</v>
       </c>
-      <c r="L38" s="90">
+      <c r="L38" s="67">
         <v>4</v>
       </c>
-      <c r="M38" s="90">
+      <c r="M38" s="67">
         <v>63</v>
       </c>
       <c r="N38" s="45" t="s">
@@ -7387,172 +7368,172 @@
       <c r="A40" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="H40" s="89" t="s">
+      <c r="H40" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="I40" s="89"/>
-      <c r="J40" s="90">
+      <c r="I40" s="65"/>
+      <c r="J40" s="67">
         <v>1</v>
       </c>
-      <c r="K40" s="90">
+      <c r="K40" s="67">
         <v>12</v>
       </c>
-      <c r="L40" s="90">
+      <c r="L40" s="67">
         <v>12</v>
       </c>
-      <c r="M40" s="90">
+      <c r="M40" s="67">
         <v>7</v>
       </c>
       <c r="N40" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O40" s="91">
+      <c r="O40" s="89">
         <v>0.001</v>
       </c>
-      <c r="P40" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="90">
-        <v>0</v>
-      </c>
-      <c r="R40" s="90">
+      <c r="P40" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="67">
+        <v>0</v>
+      </c>
+      <c r="R40" s="67">
         <v>4</v>
       </c>
       <c r="S40" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="84"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
       <c r="G41" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="H41" s="92" t="s">
+      <c r="H41" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="I41" s="89"/>
-      <c r="J41" s="90">
+      <c r="I41" s="65"/>
+      <c r="J41" s="67">
         <v>2</v>
       </c>
-      <c r="K41" s="90">
+      <c r="K41" s="67">
         <v>16</v>
       </c>
-      <c r="L41" s="90">
+      <c r="L41" s="67">
         <v>12</v>
       </c>
-      <c r="M41" s="90">
+      <c r="M41" s="67">
         <v>11</v>
       </c>
       <c r="N41" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O41" s="91">
+      <c r="O41" s="89">
         <v>0.001</v>
       </c>
-      <c r="P41" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="90">
-        <v>0</v>
-      </c>
-      <c r="R41" s="90">
+      <c r="P41" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="67">
+        <v>0</v>
+      </c>
+      <c r="R41" s="67">
         <v>4</v>
       </c>
       <c r="S41" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="84"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
       <c r="G42" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="H42" s="92" t="s">
+      <c r="H42" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="I42" s="89"/>
-      <c r="J42" s="90">
+      <c r="I42" s="65"/>
+      <c r="J42" s="67">
         <v>4</v>
       </c>
-      <c r="K42" s="90">
+      <c r="K42" s="67">
         <v>36</v>
       </c>
-      <c r="L42" s="90">
+      <c r="L42" s="67">
         <v>12</v>
       </c>
-      <c r="M42" s="90">
+      <c r="M42" s="67">
         <v>31</v>
       </c>
       <c r="N42" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="91">
+      <c r="O42" s="89">
         <v>0.001</v>
       </c>
-      <c r="P42" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="90">
-        <v>0</v>
-      </c>
-      <c r="R42" s="90">
+      <c r="P42" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="67">
+        <v>0</v>
+      </c>
+      <c r="R42" s="67">
         <v>4</v>
       </c>
       <c r="S42" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="84"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="H43" s="92" t="s">
+      <c r="H43" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="I43" s="89"/>
-      <c r="J43" s="90">
+      <c r="I43" s="65"/>
+      <c r="J43" s="67">
         <v>5</v>
       </c>
-      <c r="K43" s="90">
+      <c r="K43" s="67">
         <v>40</v>
       </c>
-      <c r="L43" s="90">
+      <c r="L43" s="67">
         <v>12</v>
       </c>
-      <c r="M43" s="90">
+      <c r="M43" s="67">
         <v>35</v>
       </c>
       <c r="N43" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O43" s="91">
+      <c r="O43" s="89">
         <v>0.001</v>
       </c>
-      <c r="P43" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="90">
-        <v>0</v>
-      </c>
-      <c r="R43" s="90">
+      <c r="P43" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="67">
+        <v>0</v>
+      </c>
+      <c r="R43" s="67">
         <v>4</v>
       </c>
       <c r="S43" s="88"/>
@@ -7567,35 +7548,35 @@
       <c r="G44" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="H44" s="92" t="s">
+      <c r="H44" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="I44" s="89"/>
-      <c r="J44" s="90">
+      <c r="I44" s="65"/>
+      <c r="J44" s="67">
         <v>7</v>
       </c>
-      <c r="K44" s="90">
+      <c r="K44" s="67">
         <v>60</v>
       </c>
-      <c r="L44" s="90">
+      <c r="L44" s="67">
         <v>12</v>
       </c>
-      <c r="M44" s="90">
+      <c r="M44" s="67">
         <v>55</v>
       </c>
       <c r="N44" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O44" s="91">
+      <c r="O44" s="89">
         <v>0.001</v>
       </c>
-      <c r="P44" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="90">
-        <v>0</v>
-      </c>
-      <c r="R44" s="90">
+      <c r="P44" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="67">
+        <v>0</v>
+      </c>
+      <c r="R44" s="67">
         <v>4</v>
       </c>
       <c r="S44" s="88"/>
@@ -7610,20 +7591,20 @@
       <c r="G45" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="H45" s="92" t="s">
+      <c r="H45" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="I45" s="89"/>
-      <c r="J45" s="90">
+      <c r="I45" s="65"/>
+      <c r="J45" s="67">
         <v>7</v>
       </c>
-      <c r="K45" s="90">
+      <c r="K45" s="67">
         <v>56</v>
       </c>
-      <c r="L45" s="90">
+      <c r="L45" s="67">
         <v>4</v>
       </c>
-      <c r="M45" s="90">
+      <c r="M45" s="67">
         <v>63</v>
       </c>
       <c r="N45" s="45" t="s">
@@ -7679,80 +7660,80 @@
       <c r="S46" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
       <c r="G47" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="H47" s="92" t="s">
+      <c r="H47" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="I47" s="89"/>
-      <c r="J47" s="90">
+      <c r="I47" s="65"/>
+      <c r="J47" s="67">
         <v>1</v>
       </c>
-      <c r="K47" s="90">
+      <c r="K47" s="67">
         <v>12</v>
       </c>
-      <c r="L47" s="90">
+      <c r="L47" s="67">
         <v>12</v>
       </c>
-      <c r="M47" s="90">
+      <c r="M47" s="67">
         <v>7</v>
       </c>
       <c r="N47" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O47" s="91">
+      <c r="O47" s="89">
         <v>0.001</v>
       </c>
-      <c r="P47" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="90">
-        <v>0</v>
-      </c>
-      <c r="R47" s="90">
+      <c r="P47" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="67">
+        <v>0</v>
+      </c>
+      <c r="R47" s="67">
         <v>4</v>
       </c>
       <c r="S47" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="94"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
       <c r="G48" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="92" t="s">
+      <c r="H48" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="I48" s="89"/>
-      <c r="J48" s="90">
+      <c r="I48" s="65"/>
+      <c r="J48" s="67">
         <v>1</v>
       </c>
-      <c r="K48" s="90">
+      <c r="K48" s="67">
         <v>8</v>
       </c>
-      <c r="L48" s="90">
+      <c r="L48" s="67">
         <v>4</v>
       </c>
-      <c r="M48" s="90">
+      <c r="M48" s="67">
         <v>11</v>
       </c>
       <c r="N48" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O48" s="90">
+      <c r="O48" s="67">
         <v>1</v>
       </c>
       <c r="P48" s="46">
@@ -7761,35 +7742,35 @@
       <c r="Q48" s="46">
         <v>0</v>
       </c>
-      <c r="R48" s="90">
+      <c r="R48" s="67">
         <v>15</v>
       </c>
       <c r="S48" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="94"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
       <c r="G49" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="H49" s="92" t="s">
+      <c r="H49" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="I49" s="89"/>
-      <c r="J49" s="90">
+      <c r="I49" s="65"/>
+      <c r="J49" s="67">
         <v>2</v>
       </c>
-      <c r="K49" s="90">
+      <c r="K49" s="67">
         <v>16</v>
       </c>
-      <c r="L49" s="90">
+      <c r="L49" s="67">
         <v>8</v>
       </c>
-      <c r="M49" s="90">
+      <c r="M49" s="67">
         <v>23</v>
       </c>
       <c r="N49" s="45" t="s">
@@ -7810,29 +7791,29 @@
       <c r="S49" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="94"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
       <c r="G50" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="H50" s="92" t="s">
+      <c r="H50" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="I50" s="89"/>
-      <c r="J50" s="90">
+      <c r="I50" s="65"/>
+      <c r="J50" s="67">
         <v>3</v>
       </c>
-      <c r="K50" s="90">
+      <c r="K50" s="67">
         <v>24</v>
       </c>
-      <c r="L50" s="90">
+      <c r="L50" s="67">
         <v>8</v>
       </c>
-      <c r="M50" s="90">
+      <c r="M50" s="67">
         <v>31</v>
       </c>
       <c r="N50" s="45" t="s">
@@ -7853,7 +7834,7 @@
       <c r="S50" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.65">
-      <c r="A51" s="94"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -7862,20 +7843,20 @@
       <c r="G51" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="H51" s="92" t="s">
+      <c r="H51" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="I51" s="89"/>
-      <c r="J51" s="90">
+      <c r="I51" s="65"/>
+      <c r="J51" s="67">
         <v>4</v>
       </c>
-      <c r="K51" s="90">
+      <c r="K51" s="67">
         <v>32</v>
       </c>
-      <c r="L51" s="90">
+      <c r="L51" s="67">
         <v>8</v>
       </c>
-      <c r="M51" s="90">
+      <c r="M51" s="67">
         <v>39</v>
       </c>
       <c r="N51" s="45" t="s">
@@ -7896,7 +7877,7 @@
       <c r="S51" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="94"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -7905,20 +7886,20 @@
       <c r="G52" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="H52" s="92" t="s">
+      <c r="H52" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="I52" s="89"/>
-      <c r="J52" s="90">
+      <c r="I52" s="65"/>
+      <c r="J52" s="67">
         <v>5</v>
       </c>
-      <c r="K52" s="90">
+      <c r="K52" s="67">
         <v>40</v>
       </c>
-      <c r="L52" s="90">
+      <c r="L52" s="67">
         <v>8</v>
       </c>
-      <c r="M52" s="90">
+      <c r="M52" s="67">
         <v>47</v>
       </c>
       <c r="N52" s="45" t="s">
@@ -7939,7 +7920,7 @@
       <c r="S52" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="95"/>
+      <c r="A53" s="93"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -7948,26 +7929,26 @@
       <c r="G53" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="H53" s="92" t="s">
+      <c r="H53" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="I53" s="89"/>
-      <c r="J53" s="90">
+      <c r="I53" s="65"/>
+      <c r="J53" s="67">
         <v>7</v>
       </c>
-      <c r="K53" s="90">
+      <c r="K53" s="67">
         <v>56</v>
       </c>
-      <c r="L53" s="90">
+      <c r="L53" s="67">
         <v>16</v>
       </c>
-      <c r="M53" s="90">
+      <c r="M53" s="67">
         <v>55</v>
       </c>
       <c r="N53" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O53" s="90">
+      <c r="O53" s="67">
         <v>1</v>
       </c>
       <c r="P53" s="46">
@@ -7976,7 +7957,7 @@
       <c r="Q53" s="46">
         <v>0</v>
       </c>
-      <c r="R53" s="90">
+      <c r="R53" s="67">
         <v>15</v>
       </c>
       <c r="S53" s="88"/>
@@ -7986,8 +7967,8 @@
       <c r="B54" s="88"/>
       <c r="C54" s="88"/>
       <c r="D54" s="88"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="88"/>
@@ -7996,7 +7977,7 @@
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
       <c r="N54" s="35"/>
-      <c r="O54" s="97"/>
+      <c r="O54" s="95"/>
       <c r="P54" s="36"/>
       <c r="Q54" s="36"/>
       <c r="R54" s="36"/>
@@ -8007,8 +7988,8 @@
       <c r="B55" s="88"/>
       <c r="C55" s="88"/>
       <c r="D55" s="88"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="94"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="88"/>
@@ -8017,7 +7998,7 @@
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
       <c r="N55" s="35"/>
-      <c r="O55" s="97"/>
+      <c r="O55" s="95"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="36"/>
       <c r="R55" s="36"/>
@@ -8028,50 +8009,50 @@
       <c r="B56" s="88"/>
       <c r="C56" s="88"/>
       <c r="D56" s="88"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
       <c r="G56" s="88"/>
       <c r="H56" s="88"/>
       <c r="I56" s="88"/>
-      <c r="J56" s="96"/>
-      <c r="K56" s="96"/>
-      <c r="L56" s="96"/>
-      <c r="M56" s="96"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+      <c r="M56" s="94"/>
       <c r="N56" s="88"/>
-      <c r="O56" s="98"/>
-      <c r="P56" s="96"/>
-      <c r="Q56" s="96"/>
-      <c r="R56" s="96"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="94"/>
+      <c r="R56" s="94"/>
       <c r="S56" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A57" s="99" t="s">
+      <c r="A57" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="101"/>
-      <c r="L57" s="101"/>
-      <c r="M57" s="101"/>
-      <c r="N57" s="100"/>
-      <c r="O57" s="102"/>
-      <c r="P57" s="101"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="101"/>
-      <c r="S57" s="100"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="98"/>
+      <c r="M57" s="98"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="99"/>
+      <c r="P57" s="98"/>
+      <c r="Q57" s="98"/>
+      <c r="R57" s="98"/>
+      <c r="S57" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="B58" s="103" t="s">
+      <c r="B58" s="41" t="s">
         <v>220</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -8096,7 +8077,7 @@
       <c r="L58" s="42"/>
       <c r="M58" s="42"/>
       <c r="N58" s="39"/>
-      <c r="O58" s="104"/>
+      <c r="O58" s="100"/>
       <c r="P58" s="42"/>
       <c r="Q58" s="42"/>
       <c r="R58" s="42"/>
@@ -8114,7 +8095,7 @@
       <c r="G59" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="H59" s="105" t="s">
+      <c r="H59" s="101" t="s">
         <v>224</v>
       </c>
       <c r="I59" s="45"/>
@@ -8144,7 +8125,7 @@
       <c r="S59" s="50"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="106"/>
+      <c r="A60" s="102"/>
       <c r="B60" s="45"/>
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
@@ -8153,7 +8134,7 @@
       <c r="G60" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="H60" s="105" t="s">
+      <c r="H60" s="101" t="s">
         <v>226</v>
       </c>
       <c r="I60" s="45"/>
@@ -8182,8 +8163,8 @@
       <c r="R60" s="46"/>
       <c r="S60" s="50"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.25">
-      <c r="A61" s="106"/>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="36">
+      <c r="A61" s="102"/>
       <c r="B61" s="45"/>
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
@@ -8223,8 +8204,8 @@
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="106"/>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="35">
+      <c r="A62" s="102"/>
       <c r="B62" s="45"/>
       <c r="C62" s="45"/>
       <c r="D62" s="45"/>
@@ -8265,7 +8246,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="107"/>
+      <c r="A63" s="103"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
       <c r="D63" s="45"/>
@@ -8308,56 +8289,56 @@
       <c r="B64" s="88"/>
       <c r="C64" s="88"/>
       <c r="D64" s="88"/>
-      <c r="E64" s="96"/>
-      <c r="F64" s="96"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
       <c r="G64" s="88"/>
-      <c r="H64" s="108"/>
+      <c r="H64" s="104"/>
       <c r="I64" s="88"/>
-      <c r="J64" s="96"/>
-      <c r="K64" s="96"/>
-      <c r="L64" s="96"/>
-      <c r="M64" s="96"/>
+      <c r="J64" s="94"/>
+      <c r="K64" s="94"/>
+      <c r="L64" s="94"/>
+      <c r="M64" s="94"/>
       <c r="N64" s="88"/>
-      <c r="O64" s="98"/>
-      <c r="P64" s="96"/>
-      <c r="Q64" s="96"/>
-      <c r="R64" s="96"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="94"/>
+      <c r="Q64" s="94"/>
+      <c r="R64" s="94"/>
       <c r="S64" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B65" s="109" t="s">
+      <c r="B65" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="C65" s="109" t="s">
+      <c r="C65" s="105" t="s">
         <v>236</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="110">
+      <c r="E65" s="106">
         <v>1000</v>
       </c>
-      <c r="F65" s="110">
+      <c r="F65" s="106">
         <v>8</v>
       </c>
-      <c r="G65" s="111"/>
-      <c r="H65" s="112"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="108"/>
       <c r="I65" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J65" s="113"/>
-      <c r="K65" s="113"/>
-      <c r="L65" s="113"/>
-      <c r="M65" s="113"/>
-      <c r="N65" s="111"/>
-      <c r="O65" s="114"/>
-      <c r="P65" s="113"/>
-      <c r="Q65" s="113"/>
-      <c r="R65" s="113"/>
-      <c r="S65" s="111"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="109"/>
+      <c r="L65" s="109"/>
+      <c r="M65" s="109"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="110"/>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="109"/>
+      <c r="R65" s="109"/>
+      <c r="S65" s="107"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="82" t="s">
@@ -8366,9 +8347,9 @@
       <c r="B66" s="83"/>
       <c r="C66" s="83"/>
       <c r="D66" s="83"/>
-      <c r="E66" s="115"/>
-      <c r="F66" s="115"/>
-      <c r="G66" s="116" t="s">
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="112" t="s">
         <v>237</v>
       </c>
       <c r="H66" s="63" t="s">
@@ -8405,13 +8386,13 @@
       <c r="S66" s="83"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="106"/>
+      <c r="A67" s="102"/>
       <c r="B67" s="83"/>
       <c r="C67" s="83"/>
       <c r="D67" s="83"/>
-      <c r="E67" s="115"/>
-      <c r="F67" s="115"/>
-      <c r="G67" s="116" t="s">
+      <c r="E67" s="111"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="112" t="s">
         <v>239</v>
       </c>
       <c r="H67" s="63" t="s">
@@ -8448,13 +8429,13 @@
       <c r="S67" s="83"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="106"/>
+      <c r="A68" s="102"/>
       <c r="B68" s="83"/>
       <c r="C68" s="83"/>
       <c r="D68" s="83"/>
-      <c r="E68" s="115"/>
-      <c r="F68" s="115"/>
-      <c r="G68" s="116" t="s">
+      <c r="E68" s="111"/>
+      <c r="F68" s="111"/>
+      <c r="G68" s="112" t="s">
         <v>241</v>
       </c>
       <c r="H68" s="63" t="s">
@@ -8491,13 +8472,13 @@
       <c r="S68" s="83"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="106"/>
+      <c r="A69" s="102"/>
       <c r="B69" s="83"/>
       <c r="C69" s="83"/>
       <c r="D69" s="83"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="115"/>
-      <c r="G69" s="116" t="s">
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="112" t="s">
         <v>242</v>
       </c>
       <c r="H69" s="63" t="s">
@@ -8534,13 +8515,13 @@
       <c r="S69" s="83"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="107"/>
+      <c r="A70" s="103"/>
       <c r="B70" s="83"/>
       <c r="C70" s="83"/>
       <c r="D70" s="83"/>
-      <c r="E70" s="115"/>
-      <c r="F70" s="115"/>
-      <c r="G70" s="117" t="s">
+      <c r="E70" s="111"/>
+      <c r="F70" s="111"/>
+      <c r="G70" s="113" t="s">
         <v>244</v>
       </c>
       <c r="H70" s="63" t="s">
@@ -8581,20 +8562,20 @@
       <c r="B71" s="88"/>
       <c r="C71" s="88"/>
       <c r="D71" s="88"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
       <c r="G71" s="88"/>
       <c r="H71" s="88"/>
       <c r="I71" s="88"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="96"/>
-      <c r="M71" s="96"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="94"/>
       <c r="N71" s="88"/>
-      <c r="O71" s="98"/>
-      <c r="P71" s="96"/>
-      <c r="Q71" s="96"/>
-      <c r="R71" s="96"/>
+      <c r="O71" s="96"/>
+      <c r="P71" s="94"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="94"/>
       <c r="S71" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
@@ -8602,44 +8583,44 @@
       <c r="B72" s="88"/>
       <c r="C72" s="88"/>
       <c r="D72" s="88"/>
-      <c r="E72" s="96"/>
-      <c r="F72" s="96"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
       <c r="G72" s="88"/>
       <c r="H72" s="88"/>
       <c r="I72" s="88"/>
-      <c r="J72" s="96"/>
-      <c r="K72" s="96"/>
-      <c r="L72" s="96"/>
-      <c r="M72" s="96"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="94"/>
+      <c r="M72" s="94"/>
       <c r="N72" s="88"/>
-      <c r="O72" s="98"/>
-      <c r="P72" s="96"/>
-      <c r="Q72" s="96"/>
-      <c r="R72" s="96"/>
+      <c r="O72" s="96"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
       <c r="S72" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A73" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="B73" s="100"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="101"/>
-      <c r="F73" s="101"/>
-      <c r="G73" s="100"/>
-      <c r="H73" s="100"/>
-      <c r="I73" s="100"/>
-      <c r="J73" s="101"/>
-      <c r="K73" s="101"/>
-      <c r="L73" s="101"/>
-      <c r="M73" s="101"/>
-      <c r="N73" s="100"/>
-      <c r="O73" s="102"/>
-      <c r="P73" s="101"/>
-      <c r="Q73" s="101"/>
-      <c r="R73" s="101"/>
-      <c r="S73" s="100"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="98"/>
+      <c r="K73" s="98"/>
+      <c r="L73" s="98"/>
+      <c r="M73" s="98"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="99"/>
+      <c r="P73" s="98"/>
+      <c r="Q73" s="98"/>
+      <c r="R73" s="98"/>
+      <c r="S73" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="39" t="s">
@@ -8670,7 +8651,7 @@
       <c r="L74" s="42"/>
       <c r="M74" s="42"/>
       <c r="N74" s="39"/>
-      <c r="O74" s="104"/>
+      <c r="O74" s="100"/>
       <c r="P74" s="42"/>
       <c r="Q74" s="42"/>
       <c r="R74" s="42"/>
@@ -8688,7 +8669,7 @@
       <c r="G75" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="H75" s="105" t="s">
+      <c r="H75" s="101" t="s">
         <v>224</v>
       </c>
       <c r="I75" s="45"/>
@@ -8722,7 +8703,7 @@
       <c r="S75" s="50"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="106"/>
+      <c r="A76" s="102"/>
       <c r="B76" s="45"/>
       <c r="C76" s="45"/>
       <c r="D76" s="45"/>
@@ -8731,7 +8712,7 @@
       <c r="G76" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="H76" s="105" t="s">
+      <c r="H76" s="101" t="s">
         <v>226</v>
       </c>
       <c r="I76" s="45"/>
@@ -8764,8 +8745,8 @@
       </c>
       <c r="S76" s="50"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="106"/>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="34.5">
+      <c r="A77" s="102"/>
       <c r="B77" s="45"/>
       <c r="C77" s="45"/>
       <c r="D77" s="45"/>
@@ -8809,8 +8790,8 @@
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="106"/>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="32.5">
+      <c r="A78" s="102"/>
       <c r="B78" s="45"/>
       <c r="C78" s="45"/>
       <c r="D78" s="45"/>
@@ -8855,7 +8836,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="107"/>
+      <c r="A79" s="103"/>
       <c r="B79" s="45"/>
       <c r="C79" s="45"/>
       <c r="D79" s="45"/>
@@ -8902,20 +8883,20 @@
       <c r="B80" s="88"/>
       <c r="C80" s="88"/>
       <c r="D80" s="88"/>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="94"/>
       <c r="G80" s="88"/>
-      <c r="H80" s="108"/>
+      <c r="H80" s="104"/>
       <c r="I80" s="88"/>
-      <c r="J80" s="96"/>
-      <c r="K80" s="96"/>
-      <c r="L80" s="96"/>
-      <c r="M80" s="96"/>
+      <c r="J80" s="94"/>
+      <c r="K80" s="94"/>
+      <c r="L80" s="94"/>
+      <c r="M80" s="94"/>
       <c r="N80" s="88"/>
-      <c r="O80" s="98"/>
-      <c r="P80" s="96"/>
-      <c r="Q80" s="96"/>
-      <c r="R80" s="96"/>
+      <c r="O80" s="96"/>
+      <c r="P80" s="94"/>
+      <c r="Q80" s="94"/>
+      <c r="R80" s="94"/>
       <c r="S80" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
@@ -8925,33 +8906,33 @@
       <c r="B81" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="109" t="s">
+      <c r="C81" s="105" t="s">
         <v>250</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="110">
+      <c r="E81" s="106">
         <v>1000</v>
       </c>
-      <c r="F81" s="110">
+      <c r="F81" s="106">
         <v>8</v>
       </c>
-      <c r="G81" s="111"/>
-      <c r="H81" s="112"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="108"/>
       <c r="I81" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J81" s="113"/>
-      <c r="K81" s="113"/>
-      <c r="L81" s="113"/>
-      <c r="M81" s="113"/>
-      <c r="N81" s="111"/>
-      <c r="O81" s="114"/>
-      <c r="P81" s="113"/>
-      <c r="Q81" s="113"/>
-      <c r="R81" s="113"/>
-      <c r="S81" s="111"/>
+      <c r="J81" s="109"/>
+      <c r="K81" s="109"/>
+      <c r="L81" s="109"/>
+      <c r="M81" s="109"/>
+      <c r="N81" s="107"/>
+      <c r="O81" s="110"/>
+      <c r="P81" s="109"/>
+      <c r="Q81" s="109"/>
+      <c r="R81" s="109"/>
+      <c r="S81" s="107"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="82" t="s">
@@ -8960,9 +8941,9 @@
       <c r="B82" s="83"/>
       <c r="C82" s="83"/>
       <c r="D82" s="83"/>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
-      <c r="G82" s="116" t="s">
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="112" t="s">
         <v>237</v>
       </c>
       <c r="H82" s="63" t="s">
@@ -8999,13 +8980,13 @@
       <c r="S82" s="83"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="106"/>
+      <c r="A83" s="102"/>
       <c r="B83" s="83"/>
       <c r="C83" s="83"/>
       <c r="D83" s="83"/>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115"/>
-      <c r="G83" s="116" t="s">
+      <c r="E83" s="111"/>
+      <c r="F83" s="111"/>
+      <c r="G83" s="112" t="s">
         <v>239</v>
       </c>
       <c r="H83" s="63" t="s">
@@ -9042,13 +9023,13 @@
       <c r="S83" s="83"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="106"/>
+      <c r="A84" s="102"/>
       <c r="B84" s="83"/>
       <c r="C84" s="83"/>
       <c r="D84" s="83"/>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115"/>
-      <c r="G84" s="116" t="s">
+      <c r="E84" s="111"/>
+      <c r="F84" s="111"/>
+      <c r="G84" s="112" t="s">
         <v>241</v>
       </c>
       <c r="H84" s="63" t="s">
@@ -9085,13 +9066,13 @@
       <c r="S84" s="83"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="106"/>
+      <c r="A85" s="102"/>
       <c r="B85" s="83"/>
       <c r="C85" s="83"/>
       <c r="D85" s="83"/>
-      <c r="E85" s="115"/>
-      <c r="F85" s="115"/>
-      <c r="G85" s="116" t="s">
+      <c r="E85" s="111"/>
+      <c r="F85" s="111"/>
+      <c r="G85" s="112" t="s">
         <v>242</v>
       </c>
       <c r="H85" s="63" t="s">
@@ -9128,13 +9109,13 @@
       <c r="S85" s="83"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="107"/>
+      <c r="A86" s="103"/>
       <c r="B86" s="83"/>
       <c r="C86" s="83"/>
       <c r="D86" s="83"/>
-      <c r="E86" s="115"/>
-      <c r="F86" s="115"/>
-      <c r="G86" s="117" t="s">
+      <c r="E86" s="111"/>
+      <c r="F86" s="111"/>
+      <c r="G86" s="113" t="s">
         <v>244</v>
       </c>
       <c r="H86" s="63" t="s">
@@ -9175,20 +9156,20 @@
       <c r="B87" s="88"/>
       <c r="C87" s="88"/>
       <c r="D87" s="88"/>
-      <c r="E87" s="96"/>
-      <c r="F87" s="96"/>
+      <c r="E87" s="94"/>
+      <c r="F87" s="94"/>
       <c r="G87" s="88"/>
       <c r="H87" s="88"/>
       <c r="I87" s="88"/>
-      <c r="J87" s="96"/>
-      <c r="K87" s="96"/>
-      <c r="L87" s="96"/>
-      <c r="M87" s="96"/>
+      <c r="J87" s="94"/>
+      <c r="K87" s="94"/>
+      <c r="L87" s="94"/>
+      <c r="M87" s="94"/>
       <c r="N87" s="88"/>
-      <c r="O87" s="98"/>
-      <c r="P87" s="96"/>
-      <c r="Q87" s="96"/>
-      <c r="R87" s="96"/>
+      <c r="O87" s="96"/>
+      <c r="P87" s="94"/>
+      <c r="Q87" s="94"/>
+      <c r="R87" s="94"/>
       <c r="S87" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
@@ -9196,20 +9177,20 @@
       <c r="B88" s="88"/>
       <c r="C88" s="88"/>
       <c r="D88" s="88"/>
-      <c r="E88" s="96"/>
-      <c r="F88" s="96"/>
+      <c r="E88" s="94"/>
+      <c r="F88" s="94"/>
       <c r="G88" s="88"/>
       <c r="H88" s="88"/>
       <c r="I88" s="88"/>
-      <c r="J88" s="96"/>
-      <c r="K88" s="96"/>
-      <c r="L88" s="96"/>
-      <c r="M88" s="96"/>
+      <c r="J88" s="94"/>
+      <c r="K88" s="94"/>
+      <c r="L88" s="94"/>
+      <c r="M88" s="94"/>
       <c r="N88" s="88"/>
-      <c r="O88" s="98"/>
-      <c r="P88" s="96"/>
-      <c r="Q88" s="96"/>
-      <c r="R88" s="96"/>
+      <c r="O88" s="96"/>
+      <c r="P88" s="94"/>
+      <c r="Q88" s="94"/>
+      <c r="R88" s="94"/>
       <c r="S88" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
@@ -9217,20 +9198,20 @@
       <c r="B89" s="88"/>
       <c r="C89" s="88"/>
       <c r="D89" s="88"/>
-      <c r="E89" s="96"/>
-      <c r="F89" s="96"/>
+      <c r="E89" s="94"/>
+      <c r="F89" s="94"/>
       <c r="G89" s="88"/>
       <c r="H89" s="88"/>
       <c r="I89" s="88"/>
-      <c r="J89" s="96"/>
-      <c r="K89" s="96"/>
-      <c r="L89" s="96"/>
-      <c r="M89" s="96"/>
+      <c r="J89" s="94"/>
+      <c r="K89" s="94"/>
+      <c r="L89" s="94"/>
+      <c r="M89" s="94"/>
       <c r="N89" s="88"/>
-      <c r="O89" s="98"/>
-      <c r="P89" s="96"/>
-      <c r="Q89" s="96"/>
-      <c r="R89" s="96"/>
+      <c r="O89" s="96"/>
+      <c r="P89" s="94"/>
+      <c r="Q89" s="94"/>
+      <c r="R89" s="94"/>
       <c r="S89" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
@@ -9238,20 +9219,20 @@
       <c r="B90" s="88"/>
       <c r="C90" s="88"/>
       <c r="D90" s="88"/>
-      <c r="E90" s="96"/>
-      <c r="F90" s="96"/>
+      <c r="E90" s="94"/>
+      <c r="F90" s="94"/>
       <c r="G90" s="88"/>
       <c r="H90" s="88"/>
       <c r="I90" s="88"/>
-      <c r="J90" s="96"/>
-      <c r="K90" s="96"/>
-      <c r="L90" s="96"/>
-      <c r="M90" s="96"/>
+      <c r="J90" s="94"/>
+      <c r="K90" s="94"/>
+      <c r="L90" s="94"/>
+      <c r="M90" s="94"/>
       <c r="N90" s="88"/>
-      <c r="O90" s="98"/>
-      <c r="P90" s="96"/>
-      <c r="Q90" s="96"/>
-      <c r="R90" s="96"/>
+      <c r="O90" s="96"/>
+      <c r="P90" s="94"/>
+      <c r="Q90" s="94"/>
+      <c r="R90" s="94"/>
       <c r="S90" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
@@ -9259,20 +9240,20 @@
       <c r="B91" s="88"/>
       <c r="C91" s="88"/>
       <c r="D91" s="88"/>
-      <c r="E91" s="96"/>
-      <c r="F91" s="96"/>
+      <c r="E91" s="94"/>
+      <c r="F91" s="94"/>
       <c r="G91" s="88"/>
       <c r="H91" s="88"/>
       <c r="I91" s="88"/>
-      <c r="J91" s="96"/>
-      <c r="K91" s="96"/>
-      <c r="L91" s="96"/>
-      <c r="M91" s="96"/>
+      <c r="J91" s="94"/>
+      <c r="K91" s="94"/>
+      <c r="L91" s="94"/>
+      <c r="M91" s="94"/>
       <c r="N91" s="88"/>
-      <c r="O91" s="98"/>
-      <c r="P91" s="96"/>
-      <c r="Q91" s="96"/>
-      <c r="R91" s="96"/>
+      <c r="O91" s="96"/>
+      <c r="P91" s="94"/>
+      <c r="Q91" s="94"/>
+      <c r="R91" s="94"/>
       <c r="S91" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
@@ -9280,20 +9261,20 @@
       <c r="B92" s="88"/>
       <c r="C92" s="88"/>
       <c r="D92" s="88"/>
-      <c r="E92" s="96"/>
-      <c r="F92" s="96"/>
+      <c r="E92" s="94"/>
+      <c r="F92" s="94"/>
       <c r="G92" s="88"/>
       <c r="H92" s="88"/>
       <c r="I92" s="88"/>
-      <c r="J92" s="96"/>
-      <c r="K92" s="96"/>
-      <c r="L92" s="96"/>
-      <c r="M92" s="96"/>
+      <c r="J92" s="94"/>
+      <c r="K92" s="94"/>
+      <c r="L92" s="94"/>
+      <c r="M92" s="94"/>
       <c r="N92" s="88"/>
-      <c r="O92" s="98"/>
-      <c r="P92" s="96"/>
-      <c r="Q92" s="96"/>
-      <c r="R92" s="96"/>
+      <c r="O92" s="96"/>
+      <c r="P92" s="94"/>
+      <c r="Q92" s="94"/>
+      <c r="R92" s="94"/>
       <c r="S92" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
@@ -9301,20 +9282,20 @@
       <c r="B93" s="88"/>
       <c r="C93" s="88"/>
       <c r="D93" s="88"/>
-      <c r="E93" s="96"/>
-      <c r="F93" s="96"/>
+      <c r="E93" s="94"/>
+      <c r="F93" s="94"/>
       <c r="G93" s="88"/>
       <c r="H93" s="88"/>
       <c r="I93" s="88"/>
-      <c r="J93" s="96"/>
-      <c r="K93" s="96"/>
-      <c r="L93" s="96"/>
-      <c r="M93" s="96"/>
+      <c r="J93" s="94"/>
+      <c r="K93" s="94"/>
+      <c r="L93" s="94"/>
+      <c r="M93" s="94"/>
       <c r="N93" s="88"/>
-      <c r="O93" s="98"/>
-      <c r="P93" s="96"/>
-      <c r="Q93" s="96"/>
-      <c r="R93" s="96"/>
+      <c r="O93" s="96"/>
+      <c r="P93" s="94"/>
+      <c r="Q93" s="94"/>
+      <c r="R93" s="94"/>
       <c r="S93" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
@@ -9322,20 +9303,20 @@
       <c r="B94" s="88"/>
       <c r="C94" s="88"/>
       <c r="D94" s="88"/>
-      <c r="E94" s="96"/>
-      <c r="F94" s="96"/>
+      <c r="E94" s="94"/>
+      <c r="F94" s="94"/>
       <c r="G94" s="88"/>
       <c r="H94" s="88"/>
       <c r="I94" s="88"/>
-      <c r="J94" s="96"/>
-      <c r="K94" s="96"/>
-      <c r="L94" s="96"/>
-      <c r="M94" s="96"/>
+      <c r="J94" s="94"/>
+      <c r="K94" s="94"/>
+      <c r="L94" s="94"/>
+      <c r="M94" s="94"/>
       <c r="N94" s="88"/>
-      <c r="O94" s="98"/>
-      <c r="P94" s="96"/>
-      <c r="Q94" s="96"/>
-      <c r="R94" s="96"/>
+      <c r="O94" s="96"/>
+      <c r="P94" s="94"/>
+      <c r="Q94" s="94"/>
+      <c r="R94" s="94"/>
       <c r="S94" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
@@ -9343,20 +9324,20 @@
       <c r="B95" s="88"/>
       <c r="C95" s="88"/>
       <c r="D95" s="88"/>
-      <c r="E95" s="96"/>
-      <c r="F95" s="96"/>
+      <c r="E95" s="94"/>
+      <c r="F95" s="94"/>
       <c r="G95" s="88"/>
       <c r="H95" s="88"/>
       <c r="I95" s="88"/>
-      <c r="J95" s="96"/>
-      <c r="K95" s="96"/>
-      <c r="L95" s="96"/>
-      <c r="M95" s="96"/>
+      <c r="J95" s="94"/>
+      <c r="K95" s="94"/>
+      <c r="L95" s="94"/>
+      <c r="M95" s="94"/>
       <c r="N95" s="88"/>
-      <c r="O95" s="98"/>
-      <c r="P95" s="96"/>
-      <c r="Q95" s="96"/>
-      <c r="R95" s="96"/>
+      <c r="O95" s="96"/>
+      <c r="P95" s="94"/>
+      <c r="Q95" s="94"/>
+      <c r="R95" s="94"/>
       <c r="S95" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
@@ -9364,8 +9345,8 @@
       <c r="B96" s="88"/>
       <c r="C96" s="88"/>
       <c r="D96" s="88"/>
-      <c r="E96" s="96"/>
-      <c r="F96" s="96"/>
+      <c r="E96" s="94"/>
+      <c r="F96" s="94"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
       <c r="I96" s="88"/>
@@ -9374,7 +9355,7 @@
       <c r="L96" s="36"/>
       <c r="M96" s="36"/>
       <c r="N96" s="35"/>
-      <c r="O96" s="97"/>
+      <c r="O96" s="95"/>
       <c r="P96" s="36"/>
       <c r="Q96" s="36"/>
       <c r="R96" s="36"/>
@@ -9385,20 +9366,20 @@
       <c r="B97" s="88"/>
       <c r="C97" s="88"/>
       <c r="D97" s="88"/>
-      <c r="E97" s="96"/>
-      <c r="F97" s="96"/>
+      <c r="E97" s="94"/>
+      <c r="F97" s="94"/>
       <c r="G97" s="88"/>
       <c r="H97" s="88"/>
       <c r="I97" s="88"/>
-      <c r="J97" s="96"/>
-      <c r="K97" s="96"/>
-      <c r="L97" s="96"/>
-      <c r="M97" s="96"/>
+      <c r="J97" s="94"/>
+      <c r="K97" s="94"/>
+      <c r="L97" s="94"/>
+      <c r="M97" s="94"/>
       <c r="N97" s="88"/>
-      <c r="O97" s="98"/>
-      <c r="P97" s="96"/>
-      <c r="Q97" s="96"/>
-      <c r="R97" s="96"/>
+      <c r="O97" s="96"/>
+      <c r="P97" s="94"/>
+      <c r="Q97" s="94"/>
+      <c r="R97" s="94"/>
       <c r="S97" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
@@ -9406,20 +9387,20 @@
       <c r="B98" s="88"/>
       <c r="C98" s="88"/>
       <c r="D98" s="88"/>
-      <c r="E98" s="96"/>
-      <c r="F98" s="96"/>
+      <c r="E98" s="94"/>
+      <c r="F98" s="94"/>
       <c r="G98" s="88"/>
       <c r="H98" s="88"/>
       <c r="I98" s="88"/>
-      <c r="J98" s="96"/>
-      <c r="K98" s="96"/>
-      <c r="L98" s="96"/>
-      <c r="M98" s="96"/>
+      <c r="J98" s="94"/>
+      <c r="K98" s="94"/>
+      <c r="L98" s="94"/>
+      <c r="M98" s="94"/>
       <c r="N98" s="88"/>
-      <c r="O98" s="98"/>
-      <c r="P98" s="96"/>
-      <c r="Q98" s="96"/>
-      <c r="R98" s="96"/>
+      <c r="O98" s="96"/>
+      <c r="P98" s="94"/>
+      <c r="Q98" s="94"/>
+      <c r="R98" s="94"/>
       <c r="S98" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
@@ -9427,20 +9408,20 @@
       <c r="B99" s="88"/>
       <c r="C99" s="88"/>
       <c r="D99" s="88"/>
-      <c r="E99" s="96"/>
-      <c r="F99" s="96"/>
+      <c r="E99" s="94"/>
+      <c r="F99" s="94"/>
       <c r="G99" s="88"/>
       <c r="H99" s="88"/>
       <c r="I99" s="88"/>
-      <c r="J99" s="96"/>
-      <c r="K99" s="96"/>
-      <c r="L99" s="96"/>
-      <c r="M99" s="96"/>
+      <c r="J99" s="94"/>
+      <c r="K99" s="94"/>
+      <c r="L99" s="94"/>
+      <c r="M99" s="94"/>
       <c r="N99" s="88"/>
-      <c r="O99" s="98"/>
-      <c r="P99" s="96"/>
-      <c r="Q99" s="96"/>
-      <c r="R99" s="96"/>
+      <c r="O99" s="96"/>
+      <c r="P99" s="94"/>
+      <c r="Q99" s="94"/>
+      <c r="R99" s="94"/>
       <c r="S99" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
@@ -9448,20 +9429,20 @@
       <c r="B100" s="88"/>
       <c r="C100" s="88"/>
       <c r="D100" s="88"/>
-      <c r="E100" s="96"/>
-      <c r="F100" s="96"/>
+      <c r="E100" s="94"/>
+      <c r="F100" s="94"/>
       <c r="G100" s="88"/>
       <c r="H100" s="88"/>
       <c r="I100" s="88"/>
-      <c r="J100" s="96"/>
-      <c r="K100" s="96"/>
-      <c r="L100" s="96"/>
-      <c r="M100" s="96"/>
+      <c r="J100" s="94"/>
+      <c r="K100" s="94"/>
+      <c r="L100" s="94"/>
+      <c r="M100" s="94"/>
       <c r="N100" s="88"/>
-      <c r="O100" s="98"/>
-      <c r="P100" s="96"/>
-      <c r="Q100" s="96"/>
-      <c r="R100" s="96"/>
+      <c r="O100" s="96"/>
+      <c r="P100" s="94"/>
+      <c r="Q100" s="94"/>
+      <c r="R100" s="94"/>
       <c r="S100" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
@@ -9469,20 +9450,20 @@
       <c r="B101" s="88"/>
       <c r="C101" s="88"/>
       <c r="D101" s="88"/>
-      <c r="E101" s="96"/>
-      <c r="F101" s="96"/>
+      <c r="E101" s="94"/>
+      <c r="F101" s="94"/>
       <c r="G101" s="88"/>
       <c r="H101" s="88"/>
       <c r="I101" s="88"/>
-      <c r="J101" s="96"/>
-      <c r="K101" s="96"/>
-      <c r="L101" s="96"/>
-      <c r="M101" s="96"/>
+      <c r="J101" s="94"/>
+      <c r="K101" s="94"/>
+      <c r="L101" s="94"/>
+      <c r="M101" s="94"/>
       <c r="N101" s="88"/>
-      <c r="O101" s="98"/>
-      <c r="P101" s="96"/>
-      <c r="Q101" s="96"/>
-      <c r="R101" s="96"/>
+      <c r="O101" s="96"/>
+      <c r="P101" s="94"/>
+      <c r="Q101" s="94"/>
+      <c r="R101" s="94"/>
       <c r="S101" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
@@ -9490,20 +9471,20 @@
       <c r="B102" s="88"/>
       <c r="C102" s="88"/>
       <c r="D102" s="88"/>
-      <c r="E102" s="96"/>
-      <c r="F102" s="96"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="94"/>
       <c r="G102" s="88"/>
       <c r="H102" s="88"/>
       <c r="I102" s="88"/>
-      <c r="J102" s="96"/>
-      <c r="K102" s="96"/>
-      <c r="L102" s="96"/>
-      <c r="M102" s="96"/>
+      <c r="J102" s="94"/>
+      <c r="K102" s="94"/>
+      <c r="L102" s="94"/>
+      <c r="M102" s="94"/>
       <c r="N102" s="88"/>
-      <c r="O102" s="98"/>
-      <c r="P102" s="96"/>
-      <c r="Q102" s="96"/>
-      <c r="R102" s="96"/>
+      <c r="O102" s="96"/>
+      <c r="P102" s="94"/>
+      <c r="Q102" s="94"/>
+      <c r="R102" s="94"/>
       <c r="S102" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
@@ -9511,20 +9492,20 @@
       <c r="B103" s="88"/>
       <c r="C103" s="88"/>
       <c r="D103" s="88"/>
-      <c r="E103" s="96"/>
-      <c r="F103" s="96"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="94"/>
       <c r="G103" s="88"/>
       <c r="H103" s="88"/>
       <c r="I103" s="88"/>
-      <c r="J103" s="96"/>
-      <c r="K103" s="96"/>
-      <c r="L103" s="96"/>
-      <c r="M103" s="96"/>
+      <c r="J103" s="94"/>
+      <c r="K103" s="94"/>
+      <c r="L103" s="94"/>
+      <c r="M103" s="94"/>
       <c r="N103" s="88"/>
-      <c r="O103" s="98"/>
-      <c r="P103" s="96"/>
-      <c r="Q103" s="96"/>
-      <c r="R103" s="96"/>
+      <c r="O103" s="96"/>
+      <c r="P103" s="94"/>
+      <c r="Q103" s="94"/>
+      <c r="R103" s="94"/>
       <c r="S103" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
@@ -9532,20 +9513,20 @@
       <c r="B104" s="88"/>
       <c r="C104" s="88"/>
       <c r="D104" s="88"/>
-      <c r="E104" s="96"/>
-      <c r="F104" s="96"/>
+      <c r="E104" s="94"/>
+      <c r="F104" s="94"/>
       <c r="G104" s="88"/>
       <c r="H104" s="88"/>
       <c r="I104" s="88"/>
-      <c r="J104" s="96"/>
-      <c r="K104" s="96"/>
-      <c r="L104" s="96"/>
-      <c r="M104" s="96"/>
+      <c r="J104" s="94"/>
+      <c r="K104" s="94"/>
+      <c r="L104" s="94"/>
+      <c r="M104" s="94"/>
       <c r="N104" s="88"/>
-      <c r="O104" s="98"/>
-      <c r="P104" s="96"/>
-      <c r="Q104" s="96"/>
-      <c r="R104" s="96"/>
+      <c r="O104" s="96"/>
+      <c r="P104" s="94"/>
+      <c r="Q104" s="94"/>
+      <c r="R104" s="94"/>
       <c r="S104" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
@@ -9553,20 +9534,20 @@
       <c r="B105" s="88"/>
       <c r="C105" s="88"/>
       <c r="D105" s="88"/>
-      <c r="E105" s="96"/>
-      <c r="F105" s="96"/>
+      <c r="E105" s="94"/>
+      <c r="F105" s="94"/>
       <c r="G105" s="88"/>
       <c r="H105" s="88"/>
       <c r="I105" s="88"/>
-      <c r="J105" s="96"/>
-      <c r="K105" s="96"/>
-      <c r="L105" s="96"/>
-      <c r="M105" s="96"/>
+      <c r="J105" s="94"/>
+      <c r="K105" s="94"/>
+      <c r="L105" s="94"/>
+      <c r="M105" s="94"/>
       <c r="N105" s="88"/>
-      <c r="O105" s="98"/>
-      <c r="P105" s="96"/>
-      <c r="Q105" s="96"/>
-      <c r="R105" s="96"/>
+      <c r="O105" s="96"/>
+      <c r="P105" s="94"/>
+      <c r="Q105" s="94"/>
+      <c r="R105" s="94"/>
       <c r="S105" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
@@ -9574,20 +9555,20 @@
       <c r="B106" s="88"/>
       <c r="C106" s="88"/>
       <c r="D106" s="88"/>
-      <c r="E106" s="96"/>
-      <c r="F106" s="96"/>
+      <c r="E106" s="94"/>
+      <c r="F106" s="94"/>
       <c r="G106" s="88"/>
       <c r="H106" s="88"/>
       <c r="I106" s="88"/>
-      <c r="J106" s="96"/>
-      <c r="K106" s="96"/>
-      <c r="L106" s="96"/>
-      <c r="M106" s="96"/>
+      <c r="J106" s="94"/>
+      <c r="K106" s="94"/>
+      <c r="L106" s="94"/>
+      <c r="M106" s="94"/>
       <c r="N106" s="88"/>
-      <c r="O106" s="98"/>
-      <c r="P106" s="96"/>
-      <c r="Q106" s="96"/>
-      <c r="R106" s="96"/>
+      <c r="O106" s="96"/>
+      <c r="P106" s="94"/>
+      <c r="Q106" s="94"/>
+      <c r="R106" s="94"/>
       <c r="S106" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
@@ -9595,20 +9576,20 @@
       <c r="B107" s="88"/>
       <c r="C107" s="88"/>
       <c r="D107" s="88"/>
-      <c r="E107" s="96"/>
-      <c r="F107" s="96"/>
+      <c r="E107" s="94"/>
+      <c r="F107" s="94"/>
       <c r="G107" s="88"/>
       <c r="H107" s="88"/>
       <c r="I107" s="88"/>
-      <c r="J107" s="96"/>
-      <c r="K107" s="96"/>
-      <c r="L107" s="96"/>
-      <c r="M107" s="96"/>
+      <c r="J107" s="94"/>
+      <c r="K107" s="94"/>
+      <c r="L107" s="94"/>
+      <c r="M107" s="94"/>
       <c r="N107" s="88"/>
-      <c r="O107" s="98"/>
-      <c r="P107" s="96"/>
-      <c r="Q107" s="96"/>
-      <c r="R107" s="96"/>
+      <c r="O107" s="96"/>
+      <c r="P107" s="94"/>
+      <c r="Q107" s="94"/>
+      <c r="R107" s="94"/>
       <c r="S107" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
@@ -9616,20 +9597,20 @@
       <c r="B108" s="88"/>
       <c r="C108" s="88"/>
       <c r="D108" s="88"/>
-      <c r="E108" s="96"/>
-      <c r="F108" s="96"/>
+      <c r="E108" s="94"/>
+      <c r="F108" s="94"/>
       <c r="G108" s="88"/>
       <c r="H108" s="88"/>
       <c r="I108" s="88"/>
-      <c r="J108" s="96"/>
-      <c r="K108" s="96"/>
-      <c r="L108" s="96"/>
-      <c r="M108" s="96"/>
+      <c r="J108" s="94"/>
+      <c r="K108" s="94"/>
+      <c r="L108" s="94"/>
+      <c r="M108" s="94"/>
       <c r="N108" s="88"/>
-      <c r="O108" s="98"/>
-      <c r="P108" s="96"/>
-      <c r="Q108" s="96"/>
-      <c r="R108" s="96"/>
+      <c r="O108" s="96"/>
+      <c r="P108" s="94"/>
+      <c r="Q108" s="94"/>
+      <c r="R108" s="94"/>
       <c r="S108" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
@@ -9637,20 +9618,20 @@
       <c r="B109" s="88"/>
       <c r="C109" s="88"/>
       <c r="D109" s="88"/>
-      <c r="E109" s="96"/>
-      <c r="F109" s="96"/>
+      <c r="E109" s="94"/>
+      <c r="F109" s="94"/>
       <c r="G109" s="88"/>
       <c r="H109" s="88"/>
       <c r="I109" s="88"/>
-      <c r="J109" s="96"/>
-      <c r="K109" s="96"/>
-      <c r="L109" s="96"/>
-      <c r="M109" s="96"/>
+      <c r="J109" s="94"/>
+      <c r="K109" s="94"/>
+      <c r="L109" s="94"/>
+      <c r="M109" s="94"/>
       <c r="N109" s="88"/>
-      <c r="O109" s="98"/>
-      <c r="P109" s="96"/>
-      <c r="Q109" s="96"/>
-      <c r="R109" s="96"/>
+      <c r="O109" s="96"/>
+      <c r="P109" s="94"/>
+      <c r="Q109" s="94"/>
+      <c r="R109" s="94"/>
       <c r="S109" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
@@ -9658,20 +9639,20 @@
       <c r="B110" s="88"/>
       <c r="C110" s="88"/>
       <c r="D110" s="88"/>
-      <c r="E110" s="96"/>
-      <c r="F110" s="96"/>
+      <c r="E110" s="94"/>
+      <c r="F110" s="94"/>
       <c r="G110" s="88"/>
       <c r="H110" s="88"/>
       <c r="I110" s="88"/>
-      <c r="J110" s="96"/>
-      <c r="K110" s="96"/>
-      <c r="L110" s="96"/>
-      <c r="M110" s="96"/>
+      <c r="J110" s="94"/>
+      <c r="K110" s="94"/>
+      <c r="L110" s="94"/>
+      <c r="M110" s="94"/>
       <c r="N110" s="88"/>
-      <c r="O110" s="98"/>
-      <c r="P110" s="96"/>
-      <c r="Q110" s="96"/>
-      <c r="R110" s="96"/>
+      <c r="O110" s="96"/>
+      <c r="P110" s="94"/>
+      <c r="Q110" s="94"/>
+      <c r="R110" s="94"/>
       <c r="S110" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
@@ -9679,20 +9660,20 @@
       <c r="B111" s="88"/>
       <c r="C111" s="88"/>
       <c r="D111" s="88"/>
-      <c r="E111" s="96"/>
-      <c r="F111" s="96"/>
+      <c r="E111" s="94"/>
+      <c r="F111" s="94"/>
       <c r="G111" s="88"/>
       <c r="H111" s="88"/>
       <c r="I111" s="88"/>
-      <c r="J111" s="96"/>
-      <c r="K111" s="96"/>
-      <c r="L111" s="96"/>
-      <c r="M111" s="96"/>
+      <c r="J111" s="94"/>
+      <c r="K111" s="94"/>
+      <c r="L111" s="94"/>
+      <c r="M111" s="94"/>
       <c r="N111" s="88"/>
-      <c r="O111" s="98"/>
-      <c r="P111" s="96"/>
-      <c r="Q111" s="96"/>
-      <c r="R111" s="96"/>
+      <c r="O111" s="96"/>
+      <c r="P111" s="94"/>
+      <c r="Q111" s="94"/>
+      <c r="R111" s="94"/>
       <c r="S111" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
@@ -9700,20 +9681,20 @@
       <c r="B112" s="88"/>
       <c r="C112" s="88"/>
       <c r="D112" s="88"/>
-      <c r="E112" s="96"/>
-      <c r="F112" s="96"/>
+      <c r="E112" s="94"/>
+      <c r="F112" s="94"/>
       <c r="G112" s="88"/>
       <c r="H112" s="88"/>
       <c r="I112" s="88"/>
-      <c r="J112" s="96"/>
-      <c r="K112" s="96"/>
-      <c r="L112" s="96"/>
-      <c r="M112" s="96"/>
+      <c r="J112" s="94"/>
+      <c r="K112" s="94"/>
+      <c r="L112" s="94"/>
+      <c r="M112" s="94"/>
       <c r="N112" s="88"/>
-      <c r="O112" s="98"/>
-      <c r="P112" s="96"/>
-      <c r="Q112" s="96"/>
-      <c r="R112" s="96"/>
+      <c r="O112" s="96"/>
+      <c r="P112" s="94"/>
+      <c r="Q112" s="94"/>
+      <c r="R112" s="94"/>
       <c r="S112" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
@@ -9721,20 +9702,20 @@
       <c r="B113" s="88"/>
       <c r="C113" s="88"/>
       <c r="D113" s="88"/>
-      <c r="E113" s="96"/>
-      <c r="F113" s="96"/>
+      <c r="E113" s="94"/>
+      <c r="F113" s="94"/>
       <c r="G113" s="88"/>
       <c r="H113" s="88"/>
       <c r="I113" s="88"/>
-      <c r="J113" s="96"/>
-      <c r="K113" s="96"/>
-      <c r="L113" s="96"/>
-      <c r="M113" s="96"/>
+      <c r="J113" s="94"/>
+      <c r="K113" s="94"/>
+      <c r="L113" s="94"/>
+      <c r="M113" s="94"/>
       <c r="N113" s="88"/>
-      <c r="O113" s="98"/>
-      <c r="P113" s="96"/>
-      <c r="Q113" s="96"/>
-      <c r="R113" s="96"/>
+      <c r="O113" s="96"/>
+      <c r="P113" s="94"/>
+      <c r="Q113" s="94"/>
+      <c r="R113" s="94"/>
       <c r="S113" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
@@ -9742,20 +9723,20 @@
       <c r="B114" s="88"/>
       <c r="C114" s="88"/>
       <c r="D114" s="88"/>
-      <c r="E114" s="96"/>
-      <c r="F114" s="96"/>
+      <c r="E114" s="94"/>
+      <c r="F114" s="94"/>
       <c r="G114" s="88"/>
       <c r="H114" s="88"/>
       <c r="I114" s="88"/>
-      <c r="J114" s="96"/>
-      <c r="K114" s="96"/>
-      <c r="L114" s="96"/>
-      <c r="M114" s="96"/>
+      <c r="J114" s="94"/>
+      <c r="K114" s="94"/>
+      <c r="L114" s="94"/>
+      <c r="M114" s="94"/>
       <c r="N114" s="88"/>
-      <c r="O114" s="98"/>
-      <c r="P114" s="96"/>
-      <c r="Q114" s="96"/>
-      <c r="R114" s="96"/>
+      <c r="O114" s="96"/>
+      <c r="P114" s="94"/>
+      <c r="Q114" s="94"/>
+      <c r="R114" s="94"/>
       <c r="S114" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
@@ -9763,20 +9744,20 @@
       <c r="B115" s="88"/>
       <c r="C115" s="88"/>
       <c r="D115" s="88"/>
-      <c r="E115" s="96"/>
-      <c r="F115" s="96"/>
+      <c r="E115" s="94"/>
+      <c r="F115" s="94"/>
       <c r="G115" s="88"/>
       <c r="H115" s="88"/>
       <c r="I115" s="88"/>
-      <c r="J115" s="96"/>
-      <c r="K115" s="96"/>
-      <c r="L115" s="96"/>
-      <c r="M115" s="96"/>
+      <c r="J115" s="94"/>
+      <c r="K115" s="94"/>
+      <c r="L115" s="94"/>
+      <c r="M115" s="94"/>
       <c r="N115" s="88"/>
-      <c r="O115" s="98"/>
-      <c r="P115" s="96"/>
-      <c r="Q115" s="96"/>
-      <c r="R115" s="96"/>
+      <c r="O115" s="96"/>
+      <c r="P115" s="94"/>
+      <c r="Q115" s="94"/>
+      <c r="R115" s="94"/>
       <c r="S115" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
@@ -9784,20 +9765,20 @@
       <c r="B116" s="88"/>
       <c r="C116" s="88"/>
       <c r="D116" s="88"/>
-      <c r="E116" s="96"/>
-      <c r="F116" s="96"/>
+      <c r="E116" s="94"/>
+      <c r="F116" s="94"/>
       <c r="G116" s="88"/>
       <c r="H116" s="88"/>
       <c r="I116" s="88"/>
-      <c r="J116" s="96"/>
-      <c r="K116" s="96"/>
-      <c r="L116" s="96"/>
-      <c r="M116" s="96"/>
+      <c r="J116" s="94"/>
+      <c r="K116" s="94"/>
+      <c r="L116" s="94"/>
+      <c r="M116" s="94"/>
       <c r="N116" s="88"/>
-      <c r="O116" s="98"/>
-      <c r="P116" s="96"/>
-      <c r="Q116" s="96"/>
-      <c r="R116" s="96"/>
+      <c r="O116" s="96"/>
+      <c r="P116" s="94"/>
+      <c r="Q116" s="94"/>
+      <c r="R116" s="94"/>
       <c r="S116" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
@@ -9805,20 +9786,20 @@
       <c r="B117" s="88"/>
       <c r="C117" s="88"/>
       <c r="D117" s="88"/>
-      <c r="E117" s="96"/>
-      <c r="F117" s="96"/>
+      <c r="E117" s="94"/>
+      <c r="F117" s="94"/>
       <c r="G117" s="88"/>
       <c r="H117" s="88"/>
       <c r="I117" s="88"/>
-      <c r="J117" s="96"/>
-      <c r="K117" s="96"/>
-      <c r="L117" s="96"/>
-      <c r="M117" s="96"/>
+      <c r="J117" s="94"/>
+      <c r="K117" s="94"/>
+      <c r="L117" s="94"/>
+      <c r="M117" s="94"/>
       <c r="N117" s="88"/>
-      <c r="O117" s="98"/>
-      <c r="P117" s="96"/>
-      <c r="Q117" s="96"/>
-      <c r="R117" s="96"/>
+      <c r="O117" s="96"/>
+      <c r="P117" s="94"/>
+      <c r="Q117" s="94"/>
+      <c r="R117" s="94"/>
       <c r="S117" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
@@ -9826,20 +9807,20 @@
       <c r="B118" s="88"/>
       <c r="C118" s="88"/>
       <c r="D118" s="88"/>
-      <c r="E118" s="96"/>
-      <c r="F118" s="96"/>
+      <c r="E118" s="94"/>
+      <c r="F118" s="94"/>
       <c r="G118" s="88"/>
       <c r="H118" s="88"/>
       <c r="I118" s="88"/>
-      <c r="J118" s="96"/>
-      <c r="K118" s="96"/>
-      <c r="L118" s="96"/>
-      <c r="M118" s="96"/>
+      <c r="J118" s="94"/>
+      <c r="K118" s="94"/>
+      <c r="L118" s="94"/>
+      <c r="M118" s="94"/>
       <c r="N118" s="88"/>
-      <c r="O118" s="98"/>
-      <c r="P118" s="96"/>
-      <c r="Q118" s="96"/>
-      <c r="R118" s="96"/>
+      <c r="O118" s="96"/>
+      <c r="P118" s="94"/>
+      <c r="Q118" s="94"/>
+      <c r="R118" s="94"/>
       <c r="S118" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
@@ -9847,20 +9828,20 @@
       <c r="B119" s="88"/>
       <c r="C119" s="88"/>
       <c r="D119" s="88"/>
-      <c r="E119" s="96"/>
-      <c r="F119" s="96"/>
+      <c r="E119" s="94"/>
+      <c r="F119" s="94"/>
       <c r="G119" s="88"/>
       <c r="H119" s="88"/>
       <c r="I119" s="88"/>
-      <c r="J119" s="96"/>
-      <c r="K119" s="96"/>
-      <c r="L119" s="96"/>
-      <c r="M119" s="96"/>
+      <c r="J119" s="94"/>
+      <c r="K119" s="94"/>
+      <c r="L119" s="94"/>
+      <c r="M119" s="94"/>
       <c r="N119" s="88"/>
-      <c r="O119" s="98"/>
-      <c r="P119" s="96"/>
-      <c r="Q119" s="96"/>
-      <c r="R119" s="96"/>
+      <c r="O119" s="96"/>
+      <c r="P119" s="94"/>
+      <c r="Q119" s="94"/>
+      <c r="R119" s="94"/>
       <c r="S119" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
@@ -9868,20 +9849,20 @@
       <c r="B120" s="88"/>
       <c r="C120" s="88"/>
       <c r="D120" s="88"/>
-      <c r="E120" s="96"/>
-      <c r="F120" s="96"/>
+      <c r="E120" s="94"/>
+      <c r="F120" s="94"/>
       <c r="G120" s="88"/>
       <c r="H120" s="88"/>
       <c r="I120" s="88"/>
-      <c r="J120" s="96"/>
-      <c r="K120" s="96"/>
-      <c r="L120" s="96"/>
-      <c r="M120" s="96"/>
+      <c r="J120" s="94"/>
+      <c r="K120" s="94"/>
+      <c r="L120" s="94"/>
+      <c r="M120" s="94"/>
       <c r="N120" s="88"/>
-      <c r="O120" s="98"/>
-      <c r="P120" s="96"/>
-      <c r="Q120" s="96"/>
-      <c r="R120" s="96"/>
+      <c r="O120" s="96"/>
+      <c r="P120" s="94"/>
+      <c r="Q120" s="94"/>
+      <c r="R120" s="94"/>
       <c r="S120" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
@@ -9889,20 +9870,20 @@
       <c r="B121" s="88"/>
       <c r="C121" s="88"/>
       <c r="D121" s="88"/>
-      <c r="E121" s="96"/>
-      <c r="F121" s="96"/>
+      <c r="E121" s="94"/>
+      <c r="F121" s="94"/>
       <c r="G121" s="88"/>
       <c r="H121" s="88"/>
       <c r="I121" s="88"/>
-      <c r="J121" s="96"/>
-      <c r="K121" s="96"/>
-      <c r="L121" s="96"/>
-      <c r="M121" s="96"/>
+      <c r="J121" s="94"/>
+      <c r="K121" s="94"/>
+      <c r="L121" s="94"/>
+      <c r="M121" s="94"/>
       <c r="N121" s="88"/>
-      <c r="O121" s="98"/>
-      <c r="P121" s="96"/>
-      <c r="Q121" s="96"/>
-      <c r="R121" s="96"/>
+      <c r="O121" s="96"/>
+      <c r="P121" s="94"/>
+      <c r="Q121" s="94"/>
+      <c r="R121" s="94"/>
       <c r="S121" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
@@ -9910,20 +9891,20 @@
       <c r="B122" s="88"/>
       <c r="C122" s="88"/>
       <c r="D122" s="88"/>
-      <c r="E122" s="96"/>
-      <c r="F122" s="96"/>
+      <c r="E122" s="94"/>
+      <c r="F122" s="94"/>
       <c r="G122" s="88"/>
       <c r="H122" s="88"/>
       <c r="I122" s="88"/>
-      <c r="J122" s="96"/>
-      <c r="K122" s="96"/>
-      <c r="L122" s="96"/>
-      <c r="M122" s="96"/>
+      <c r="J122" s="94"/>
+      <c r="K122" s="94"/>
+      <c r="L122" s="94"/>
+      <c r="M122" s="94"/>
       <c r="N122" s="88"/>
-      <c r="O122" s="98"/>
-      <c r="P122" s="96"/>
-      <c r="Q122" s="96"/>
-      <c r="R122" s="96"/>
+      <c r="O122" s="96"/>
+      <c r="P122" s="94"/>
+      <c r="Q122" s="94"/>
+      <c r="R122" s="94"/>
       <c r="S122" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
@@ -9931,20 +9912,20 @@
       <c r="B123" s="88"/>
       <c r="C123" s="88"/>
       <c r="D123" s="88"/>
-      <c r="E123" s="96"/>
-      <c r="F123" s="96"/>
+      <c r="E123" s="94"/>
+      <c r="F123" s="94"/>
       <c r="G123" s="88"/>
       <c r="H123" s="88"/>
       <c r="I123" s="88"/>
-      <c r="J123" s="96"/>
-      <c r="K123" s="96"/>
-      <c r="L123" s="96"/>
-      <c r="M123" s="96"/>
+      <c r="J123" s="94"/>
+      <c r="K123" s="94"/>
+      <c r="L123" s="94"/>
+      <c r="M123" s="94"/>
       <c r="N123" s="88"/>
-      <c r="O123" s="98"/>
-      <c r="P123" s="96"/>
-      <c r="Q123" s="96"/>
-      <c r="R123" s="96"/>
+      <c r="O123" s="96"/>
+      <c r="P123" s="94"/>
+      <c r="Q123" s="94"/>
+      <c r="R123" s="94"/>
       <c r="S123" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
@@ -9952,20 +9933,20 @@
       <c r="B124" s="88"/>
       <c r="C124" s="88"/>
       <c r="D124" s="88"/>
-      <c r="E124" s="96"/>
-      <c r="F124" s="96"/>
+      <c r="E124" s="94"/>
+      <c r="F124" s="94"/>
       <c r="G124" s="88"/>
       <c r="H124" s="88"/>
       <c r="I124" s="88"/>
-      <c r="J124" s="96"/>
-      <c r="K124" s="96"/>
-      <c r="L124" s="96"/>
-      <c r="M124" s="96"/>
+      <c r="J124" s="94"/>
+      <c r="K124" s="94"/>
+      <c r="L124" s="94"/>
+      <c r="M124" s="94"/>
       <c r="N124" s="88"/>
-      <c r="O124" s="98"/>
-      <c r="P124" s="96"/>
-      <c r="Q124" s="96"/>
-      <c r="R124" s="96"/>
+      <c r="O124" s="96"/>
+      <c r="P124" s="94"/>
+      <c r="Q124" s="94"/>
+      <c r="R124" s="94"/>
       <c r="S124" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
@@ -9973,20 +9954,20 @@
       <c r="B125" s="88"/>
       <c r="C125" s="88"/>
       <c r="D125" s="88"/>
-      <c r="E125" s="96"/>
-      <c r="F125" s="96"/>
+      <c r="E125" s="94"/>
+      <c r="F125" s="94"/>
       <c r="G125" s="88"/>
       <c r="H125" s="88"/>
       <c r="I125" s="88"/>
-      <c r="J125" s="96"/>
-      <c r="K125" s="96"/>
-      <c r="L125" s="96"/>
-      <c r="M125" s="96"/>
+      <c r="J125" s="94"/>
+      <c r="K125" s="94"/>
+      <c r="L125" s="94"/>
+      <c r="M125" s="94"/>
       <c r="N125" s="88"/>
-      <c r="O125" s="98"/>
-      <c r="P125" s="96"/>
-      <c r="Q125" s="96"/>
-      <c r="R125" s="96"/>
+      <c r="O125" s="96"/>
+      <c r="P125" s="94"/>
+      <c r="Q125" s="94"/>
+      <c r="R125" s="94"/>
       <c r="S125" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
@@ -9994,20 +9975,20 @@
       <c r="B126" s="88"/>
       <c r="C126" s="88"/>
       <c r="D126" s="88"/>
-      <c r="E126" s="96"/>
-      <c r="F126" s="96"/>
+      <c r="E126" s="94"/>
+      <c r="F126" s="94"/>
       <c r="G126" s="88"/>
       <c r="H126" s="88"/>
       <c r="I126" s="88"/>
-      <c r="J126" s="96"/>
-      <c r="K126" s="96"/>
-      <c r="L126" s="96"/>
-      <c r="M126" s="96"/>
+      <c r="J126" s="94"/>
+      <c r="K126" s="94"/>
+      <c r="L126" s="94"/>
+      <c r="M126" s="94"/>
       <c r="N126" s="88"/>
-      <c r="O126" s="98"/>
-      <c r="P126" s="96"/>
-      <c r="Q126" s="96"/>
-      <c r="R126" s="96"/>
+      <c r="O126" s="96"/>
+      <c r="P126" s="94"/>
+      <c r="Q126" s="94"/>
+      <c r="R126" s="94"/>
       <c r="S126" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
@@ -10015,20 +9996,20 @@
       <c r="B127" s="88"/>
       <c r="C127" s="88"/>
       <c r="D127" s="88"/>
-      <c r="E127" s="96"/>
-      <c r="F127" s="96"/>
+      <c r="E127" s="94"/>
+      <c r="F127" s="94"/>
       <c r="G127" s="88"/>
       <c r="H127" s="88"/>
       <c r="I127" s="88"/>
-      <c r="J127" s="96"/>
-      <c r="K127" s="96"/>
-      <c r="L127" s="96"/>
-      <c r="M127" s="96"/>
+      <c r="J127" s="94"/>
+      <c r="K127" s="94"/>
+      <c r="L127" s="94"/>
+      <c r="M127" s="94"/>
       <c r="N127" s="88"/>
-      <c r="O127" s="98"/>
-      <c r="P127" s="96"/>
-      <c r="Q127" s="96"/>
-      <c r="R127" s="96"/>
+      <c r="O127" s="96"/>
+      <c r="P127" s="94"/>
+      <c r="Q127" s="94"/>
+      <c r="R127" s="94"/>
       <c r="S127" s="88"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
@@ -10036,20 +10017,20 @@
       <c r="B128" s="88"/>
       <c r="C128" s="88"/>
       <c r="D128" s="88"/>
-      <c r="E128" s="96"/>
-      <c r="F128" s="96"/>
+      <c r="E128" s="94"/>
+      <c r="F128" s="94"/>
       <c r="G128" s="88"/>
       <c r="H128" s="88"/>
       <c r="I128" s="88"/>
-      <c r="J128" s="96"/>
-      <c r="K128" s="96"/>
-      <c r="L128" s="96"/>
-      <c r="M128" s="96"/>
+      <c r="J128" s="94"/>
+      <c r="K128" s="94"/>
+      <c r="L128" s="94"/>
+      <c r="M128" s="94"/>
       <c r="N128" s="88"/>
-      <c r="O128" s="98"/>
-      <c r="P128" s="96"/>
-      <c r="Q128" s="96"/>
-      <c r="R128" s="96"/>
+      <c r="O128" s="96"/>
+      <c r="P128" s="94"/>
+      <c r="Q128" s="94"/>
+      <c r="R128" s="94"/>
       <c r="S128" s="88"/>
     </row>
   </sheetData>
@@ -10086,24 +10067,24 @@
     <col min="2" max="2" style="53" width="9.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="53" width="9.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="53" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="53" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="53" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="54" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="54" width="9.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="55" width="19.719285714285714" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="55" width="14.290714285714287" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="53" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="74" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="74" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="74" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="74" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="76" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="76" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="76" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="76" width="9.005" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="55" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="74" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="74" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="75" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="75" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="76" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="76" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="76" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="76" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="76" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="55" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="41" customFormat="1" s="1">
       <c r="A1" s="56" t="s">
         <v>61</v>
       </c>
@@ -10116,10 +10097,10 @@
       <c r="D1" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>66</v>
       </c>
       <c r="G1" s="56" t="s">
@@ -10204,134 +10185,134 @@
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="66" t="s">
         <v>84</v>
       </c>
       <c r="I3" s="63"/>
-      <c r="J3" s="66">
-        <v>0</v>
-      </c>
-      <c r="K3" s="66">
-        <v>0</v>
-      </c>
-      <c r="L3" s="66">
+      <c r="J3" s="67">
+        <v>0</v>
+      </c>
+      <c r="K3" s="67">
+        <v>0</v>
+      </c>
+      <c r="L3" s="67">
         <v>4</v>
       </c>
-      <c r="M3" s="66">
+      <c r="M3" s="67">
         <v>3</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="66">
+      <c r="O3" s="67">
         <v>1</v>
       </c>
-      <c r="P3" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="66">
-        <v>0</v>
-      </c>
-      <c r="R3" s="66">
+      <c r="P3" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="67">
+        <v>0</v>
+      </c>
+      <c r="R3" s="67">
         <v>15</v>
       </c>
-      <c r="S3" s="67" t="s">
+      <c r="S3" s="68" t="s">
         <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="64"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
       <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="66" t="s">
         <v>87</v>
       </c>
       <c r="I4" s="63"/>
-      <c r="J4" s="66">
-        <v>0</v>
-      </c>
-      <c r="K4" s="66">
+      <c r="J4" s="67">
+        <v>0</v>
+      </c>
+      <c r="K4" s="67">
         <v>4</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="67">
         <v>4</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="67">
         <v>7</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="66">
+      <c r="O4" s="67">
         <v>1</v>
       </c>
-      <c r="P4" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="66">
-        <v>0</v>
-      </c>
-      <c r="R4" s="66">
+      <c r="P4" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="67">
+        <v>0</v>
+      </c>
+      <c r="R4" s="67">
         <v>1</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="69" t="s">
         <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
       <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="64"/>
+      <c r="H5" s="65"/>
       <c r="I5" s="63"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="64"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="65"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="73"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10348,7 +10329,7 @@
   </sheetPr>
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10358,7 +10339,7 @@
     <col min="4" max="4" style="53" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="55" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="55" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="55" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="53" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="54" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -10547,7 +10528,7 @@
       <c r="R4" s="14"/>
       <c r="S4" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.5">
       <c r="A5" s="19"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -10588,7 +10569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.5">
       <c r="A6" s="21"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
